--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -729,12 +729,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -778,37 +784,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -823,17 +837,123 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
+      <selection pane="bottomLeft" activeCell="I64" activeCellId="0" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -842,7 +962,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="26.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="42.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="25.25"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="978" min="10" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="985" min="979" style="1" width="11.62"/>
@@ -851,121 +971,121 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="998" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -974,13 +1094,13 @@
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="8" t="n">
         <v>1001</v>
       </c>
     </row>
@@ -988,10 +1108,10 @@
       <c r="A6" s="1" t="n">
         <v>1002</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1003,13 +1123,13 @@
       <c r="F6" s="1" t="n">
         <v>1007</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="8" t="n">
         <v>1002</v>
       </c>
     </row>
@@ -1017,10 +1137,10 @@
       <c r="A7" s="1" t="n">
         <v>1003</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1032,13 +1152,13 @@
       <c r="F7" s="1" t="n">
         <v>1008</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="8" t="n">
         <v>1003</v>
       </c>
     </row>
@@ -1046,10 +1166,10 @@
       <c r="A8" s="1" t="n">
         <v>1004</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1061,13 +1181,13 @@
       <c r="F8" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="8" t="n">
         <v>2001</v>
       </c>
     </row>
@@ -1075,10 +1195,10 @@
       <c r="A9" s="1" t="n">
         <v>1005</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1090,13 +1210,13 @@
       <c r="F9" s="1" t="n">
         <v>1002</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="8" t="n">
         <v>2002</v>
       </c>
     </row>
@@ -1104,10 +1224,10 @@
       <c r="A10" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1119,13 +1239,13 @@
       <c r="F10" s="1" t="n">
         <v>1003</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="8" t="n">
         <v>2003</v>
       </c>
     </row>
@@ -1133,10 +1253,10 @@
       <c r="A11" s="1" t="n">
         <v>1007</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1148,13 +1268,13 @@
       <c r="F11" s="1" t="n">
         <v>1004</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2" t="n">
         <v>3001</v>
       </c>
     </row>
@@ -1162,10 +1282,10 @@
       <c r="A12" s="1" t="n">
         <v>1008</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1177,13 +1297,13 @@
       <c r="F12" s="1" t="n">
         <v>1005</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="2" t="n">
         <v>3002</v>
       </c>
     </row>
@@ -1191,10 +1311,10 @@
       <c r="A13" s="1" t="n">
         <v>1009</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1206,13 +1326,13 @@
       <c r="F13" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="2" t="n">
         <v>3003</v>
       </c>
     </row>
@@ -1220,10 +1340,10 @@
       <c r="A14" s="1" t="n">
         <v>1010</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1235,13 +1355,13 @@
       <c r="F14" s="1" t="n">
         <v>1009</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="2" t="n">
         <f aca="false">I11+1000</f>
         <v>4001</v>
       </c>
@@ -1250,10 +1370,10 @@
       <c r="A15" s="1" t="n">
         <v>1011</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1265,13 +1385,13 @@
       <c r="F15" s="1" t="n">
         <v>1013</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="2" t="n">
         <f aca="false">I12+1000</f>
         <v>4002</v>
       </c>
@@ -1280,10 +1400,10 @@
       <c r="A16" s="1" t="n">
         <v>1012</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1295,13 +1415,13 @@
       <c r="F16" s="1" t="n">
         <v>1014</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="2" t="n">
         <f aca="false">I13+1000</f>
         <v>4003</v>
       </c>
@@ -1310,10 +1430,10 @@
       <c r="A17" s="1" t="n">
         <v>1013</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1325,13 +1445,13 @@
       <c r="F17" s="1" t="n">
         <v>1010</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="2" t="n">
         <f aca="false">I14+1000</f>
         <v>5001</v>
       </c>
@@ -1340,10 +1460,10 @@
       <c r="A18" s="1" t="n">
         <v>1014</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1355,13 +1475,13 @@
       <c r="F18" s="1" t="n">
         <v>1011</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="2" t="n">
         <f aca="false">I15+1000</f>
         <v>5002</v>
       </c>
@@ -1370,10 +1490,10 @@
       <c r="A19" s="1" t="n">
         <v>1015</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1385,13 +1505,13 @@
       <c r="F19" s="1" t="n">
         <v>1012</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="2" t="n">
         <f aca="false">I16+1000</f>
         <v>5003</v>
       </c>
@@ -1400,10 +1520,10 @@
       <c r="A20" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1415,7 +1535,7 @@
       <c r="F20" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H20" s="1" t="n">
@@ -1429,10 +1549,10 @@
       <c r="A21" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1444,7 +1564,7 @@
       <c r="F21" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H21" s="1" t="n">
@@ -1458,10 +1578,10 @@
       <c r="A22" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1473,7 +1593,7 @@
       <c r="F22" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="1" t="n">
@@ -1488,10 +1608,10 @@
       <c r="A23" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1503,7 +1623,7 @@
       <c r="F23" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H23" s="1" t="n">
@@ -1518,10 +1638,10 @@
       <c r="A24" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1533,7 +1653,7 @@
       <c r="F24" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H24" s="1" t="n">
@@ -1548,10 +1668,10 @@
       <c r="A25" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1563,7 +1683,7 @@
       <c r="F25" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H25" s="1" t="n">
@@ -1578,10 +1698,10 @@
       <c r="A26" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1593,7 +1713,7 @@
       <c r="F26" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H26" s="1" t="n">
@@ -1608,10 +1728,10 @@
       <c r="A27" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1623,7 +1743,7 @@
       <c r="F27" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H27" s="1" t="n">
@@ -1638,10 +1758,10 @@
       <c r="A28" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1653,7 +1773,7 @@
       <c r="F28" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H28" s="1" t="n">
@@ -1668,10 +1788,10 @@
       <c r="A29" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1683,7 +1803,7 @@
       <c r="F29" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H29" s="1" t="n">
@@ -1698,10 +1818,10 @@
       <c r="A30" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1713,7 +1833,7 @@
       <c r="F30" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H30" s="1" t="n">
@@ -1728,10 +1848,10 @@
       <c r="A31" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1743,7 +1863,7 @@
       <c r="F31" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H31" s="1" t="n">
@@ -1758,10 +1878,10 @@
       <c r="A32" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1773,7 +1893,7 @@
       <c r="F32" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H32" s="1" t="n">
@@ -1788,10 +1908,10 @@
       <c r="A33" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1803,7 +1923,7 @@
       <c r="F33" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="1" t="n">
@@ -1818,10 +1938,10 @@
       <c r="A34" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1833,7 +1953,7 @@
       <c r="F34" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H34" s="1" t="n">
@@ -1848,10 +1968,10 @@
       <c r="A35" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1863,7 +1983,7 @@
       <c r="F35" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H35" s="1" t="n">
@@ -1878,10 +1998,10 @@
       <c r="A36" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1893,7 +2013,7 @@
       <c r="F36" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H36" s="1" t="n">
@@ -1908,10 +2028,10 @@
       <c r="A37" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1923,7 +2043,7 @@
       <c r="F37" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H37" s="1" t="n">
@@ -1938,10 +2058,10 @@
       <c r="A38" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1953,7 +2073,7 @@
       <c r="F38" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H38" s="1" t="n">
@@ -1968,10 +2088,10 @@
       <c r="A39" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1983,7 +2103,7 @@
       <c r="F39" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H39" s="1" t="n">
@@ -1998,10 +2118,10 @@
       <c r="A40" s="1" t="n">
         <v>3001</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2013,7 +2133,7 @@
       <c r="F40" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H40" s="1" t="n">
@@ -2027,10 +2147,10 @@
       <c r="A41" s="1" t="n">
         <v>3002</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2042,7 +2162,7 @@
       <c r="F41" s="1" t="n">
         <v>3001</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H41" s="1" t="n">
@@ -2056,10 +2176,10 @@
       <c r="A42" s="1" t="n">
         <v>3003</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -2071,7 +2191,7 @@
       <c r="F42" s="1" t="n">
         <v>3002</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H42" s="1" t="n">
@@ -2085,10 +2205,10 @@
       <c r="A43" s="1" t="n">
         <v>3004</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2100,7 +2220,7 @@
       <c r="F43" s="1" t="n">
         <v>3003</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H43" s="1" t="n">
@@ -2114,10 +2234,10 @@
       <c r="A44" s="1" t="n">
         <v>3005</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2129,7 +2249,7 @@
       <c r="F44" s="1" t="n">
         <v>3004</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H44" s="1" t="n">
@@ -2143,10 +2263,10 @@
       <c r="A45" s="1" t="n">
         <v>3006</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2158,7 +2278,7 @@
       <c r="F45" s="1" t="n">
         <v>3005</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H45" s="1" t="n">
@@ -2172,10 +2292,10 @@
       <c r="A46" s="1" t="n">
         <v>3007</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -2187,7 +2307,7 @@
       <c r="F46" s="1" t="n">
         <v>3006</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H46" s="1" t="n">
@@ -2201,10 +2321,10 @@
       <c r="A47" s="1" t="n">
         <v>5001</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2216,7 +2336,7 @@
       <c r="F47" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H47" s="1" t="n">
@@ -2230,10 +2350,10 @@
       <c r="A48" s="1" t="n">
         <v>5002</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -2245,7 +2365,7 @@
       <c r="F48" s="1" t="n">
         <v>5001</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H48" s="1" t="n">
@@ -2259,10 +2379,10 @@
       <c r="A49" s="1" t="n">
         <v>5003</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -2274,7 +2394,7 @@
       <c r="F49" s="1" t="n">
         <v>5002</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H49" s="1" t="n">
@@ -2288,10 +2408,10 @@
       <c r="A50" s="1" t="n">
         <v>5004</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -2303,7 +2423,7 @@
       <c r="F50" s="1" t="n">
         <v>5003</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="2" t="s">
         <v>102</v>
       </c>
       <c r="H50" s="1" t="n">
@@ -2317,10 +2437,10 @@
       <c r="A51" s="1" t="n">
         <v>5005</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -2332,7 +2452,7 @@
       <c r="F51" s="1" t="n">
         <v>5004</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H51" s="1" t="n">
@@ -2346,10 +2466,10 @@
       <c r="A52" s="1" t="n">
         <v>6001</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -2361,7 +2481,7 @@
       <c r="F52" s="1" t="n">
         <v>5005</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H52" s="1" t="n">
@@ -2375,10 +2495,10 @@
       <c r="A53" s="1" t="n">
         <v>6002</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -2390,7 +2510,7 @@
       <c r="F53" s="1" t="n">
         <v>5006</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H53" s="1" t="n">
@@ -2404,10 +2524,10 @@
       <c r="A54" s="1" t="n">
         <v>6003</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -2419,7 +2539,7 @@
       <c r="F54" s="1" t="n">
         <v>5007</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H54" s="1" t="n">
@@ -2433,10 +2553,10 @@
       <c r="A55" s="1" t="n">
         <v>6004</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -2448,7 +2568,7 @@
       <c r="F55" s="1" t="n">
         <v>5008</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H55" s="1" t="n">
@@ -2462,10 +2582,10 @@
       <c r="A56" s="1" t="n">
         <v>6005</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -2477,7 +2597,7 @@
       <c r="F56" s="1" t="n">
         <v>5009</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H56" s="1" t="n">
@@ -2491,10 +2611,10 @@
       <c r="A57" s="1" t="n">
         <v>7001</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -2506,7 +2626,7 @@
       <c r="F57" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H57" s="1" t="n">
@@ -2517,13 +2637,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="9" t="n">
         <v>7002</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -2535,7 +2655,7 @@
       <c r="F58" s="1" t="n">
         <v>6001</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H58" s="1" t="n">
@@ -2546,13 +2666,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="9" t="n">
         <v>7003</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -2564,7 +2684,7 @@
       <c r="F59" s="1" t="n">
         <v>6002</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H59" s="1" t="n">
@@ -2575,13 +2695,13 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="9" t="n">
         <v>7004</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -2593,7 +2713,7 @@
       <c r="F60" s="1" t="n">
         <v>6003</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="2" t="s">
         <v>102</v>
       </c>
       <c r="H60" s="1" t="n">
@@ -2604,13 +2724,13 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="9" t="n">
         <v>7005</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -2622,7 +2742,7 @@
       <c r="F61" s="1" t="n">
         <v>6004</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H61" s="1" t="n">
@@ -2633,13 +2753,13 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="9" t="n">
         <v>8001</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -2651,7 +2771,7 @@
       <c r="F62" s="1" t="n">
         <v>6005</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H62" s="1" t="n">
@@ -2662,13 +2782,13 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="9" t="n">
         <v>8002</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -2680,7 +2800,7 @@
       <c r="F63" s="1" t="n">
         <v>6006</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H63" s="1" t="n">
@@ -2691,13 +2811,13 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="9" t="n">
         <v>8003</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -2709,7 +2829,7 @@
       <c r="F64" s="1" t="n">
         <v>6007</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H64" s="1" t="n">
@@ -2720,13 +2840,13 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="9" t="n">
         <v>8004</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -2738,7 +2858,7 @@
       <c r="F65" s="1" t="n">
         <v>6008</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H65" s="1" t="n">
@@ -2749,13 +2869,13 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="9" t="n">
         <v>8005</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -2767,7 +2887,7 @@
       <c r="F66" s="1" t="n">
         <v>6009</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H66" s="1" t="n">
@@ -2778,13 +2898,13 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="9" t="n">
         <v>9001</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -2796,7 +2916,7 @@
       <c r="F67" s="1" t="n">
         <v>6010</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H67" s="1" t="n">
@@ -2807,13 +2927,13 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="9" t="n">
         <v>9002</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -2825,7 +2945,7 @@
       <c r="F68" s="1" t="n">
         <v>6011</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H68" s="1" t="n">
@@ -2836,13 +2956,13 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="9" t="n">
         <v>9003</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -2854,7 +2974,7 @@
       <c r="F69" s="1" t="n">
         <v>6012</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H69" s="1" t="n">
@@ -2865,13 +2985,13 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="9" t="n">
         <v>9004</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -2883,7 +3003,7 @@
       <c r="F70" s="1" t="n">
         <v>6013</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H70" s="1" t="n">
@@ -2894,13 +3014,13 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="9" t="n">
         <v>9005</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -2912,7 +3032,7 @@
       <c r="F71" s="1" t="n">
         <v>6014</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H71" s="1" t="n">
@@ -2923,13 +3043,13 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="9" t="n">
         <v>10001</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -2941,7 +3061,7 @@
       <c r="F72" s="1" t="n">
         <v>6015</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H72" s="1" t="n">
@@ -2952,13 +3072,13 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="9" t="n">
         <v>10002</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -2970,7 +3090,7 @@
       <c r="F73" s="1" t="n">
         <v>6016</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H73" s="1" t="n">
@@ -2981,13 +3101,13 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="9" t="n">
         <v>10003</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -2999,7 +3119,7 @@
       <c r="F74" s="1" t="n">
         <v>6017</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H74" s="1" t="n">
@@ -3010,13 +3130,13 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="9" t="n">
         <v>10004</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -3028,7 +3148,7 @@
       <c r="F75" s="1" t="n">
         <v>6018</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H75" s="1" t="n">
@@ -3039,13 +3159,13 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="9" t="n">
         <v>10005</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -3057,7 +3177,7 @@
       <c r="F76" s="1" t="n">
         <v>6019</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G76" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H76" s="1" t="n">
@@ -3071,10 +3191,10 @@
       <c r="A77" s="1" t="n">
         <v>101001</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -3086,7 +3206,7 @@
       <c r="F77" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" s="2" t="s">
         <v>141</v>
       </c>
       <c r="H77" s="1" t="n">
@@ -3100,10 +3220,10 @@
       <c r="A78" s="1" t="n">
         <v>101002</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -3115,7 +3235,7 @@
       <c r="F78" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H78" s="1" t="n">
@@ -3129,10 +3249,10 @@
       <c r="A79" s="1" t="n">
         <v>101003</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -3144,7 +3264,7 @@
       <c r="F79" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="G79" s="2" t="s">
         <v>145</v>
       </c>
       <c r="H79" s="1" t="n">
@@ -3158,10 +3278,10 @@
       <c r="A80" s="1" t="n">
         <v>102001</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -3173,7 +3293,7 @@
       <c r="F80" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="G80" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H80" s="1" t="n">
@@ -3187,10 +3307,10 @@
       <c r="A81" s="1" t="n">
         <v>102002</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -3202,7 +3322,7 @@
       <c r="F81" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" s="2" t="s">
         <v>148</v>
       </c>
       <c r="H81" s="1" t="n">
@@ -3216,10 +3336,10 @@
       <c r="A82" s="1" t="n">
         <v>102003</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -3231,7 +3351,7 @@
       <c r="F82" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" s="2" t="s">
         <v>149</v>
       </c>
       <c r="H82" s="1" t="n">

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="151">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">通关世界1·简单</t>
   </si>
   <si>
-    <t xml:space="preserve">1|50</t>
+    <t xml:space="preserve">1|100</t>
   </si>
   <si>
     <t xml:space="preserve">Stage_stageName_2</t>
@@ -253,7 +253,7 @@
     <t xml:space="preserve">通关世界1·普通</t>
   </si>
   <si>
-    <t xml:space="preserve">1|75</t>
+    <t xml:space="preserve">1|150</t>
   </si>
   <si>
     <t xml:space="preserve">Stage_stageName_3</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">通关世界1·困难</t>
   </si>
   <si>
-    <t xml:space="preserve">1|100</t>
+    <t xml:space="preserve">1|200</t>
   </si>
   <si>
     <t xml:space="preserve">Stage_stageName_4</t>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t xml:space="preserve">游玩游戏20局</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|50</t>
   </si>
   <si>
     <t xml:space="preserve">Task_taskName_4</t>
@@ -953,7 +956,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I64" activeCellId="0" sqref="I64"/>
+      <selection pane="bottomLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1120,9 +1123,6 @@
       <c r="E6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>1007</v>
-      </c>
       <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1149,9 +1149,6 @@
       <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>1008</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1178,11 +1175,8 @@
       <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <v>1001</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>1</v>
@@ -1207,11 +1201,8 @@
       <c r="E9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <v>1002</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>1</v>
@@ -1236,11 +1227,8 @@
       <c r="E10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <v>1003</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>1</v>
@@ -1265,11 +1253,8 @@
       <c r="E11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>1004</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>1</v>
@@ -1294,11 +1279,8 @@
       <c r="E12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <v>1005</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>1</v>
@@ -1323,11 +1305,8 @@
       <c r="E13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>1006</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>1</v>
@@ -1352,11 +1331,8 @@
       <c r="E14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <v>1009</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>1</v>
@@ -1382,11 +1358,8 @@
       <c r="E15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="1" t="n">
-        <v>1013</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>1</v>
@@ -1412,11 +1385,8 @@
       <c r="E16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="n">
-        <v>1014</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>1</v>
@@ -1442,11 +1412,8 @@
       <c r="E17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>1010</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>1</v>
@@ -1472,11 +1439,8 @@
       <c r="E18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>1011</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>1</v>
@@ -1502,11 +1466,8 @@
       <c r="E19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="n">
-        <v>1012</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>1</v>
@@ -2453,7 +2414,7 @@
         <v>5004</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>5</v>
@@ -2467,13 +2428,13 @@
         <v>6001</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>1</v>
@@ -2482,7 +2443,7 @@
         <v>5005</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>5</v>
@@ -2496,13 +2457,13 @@
         <v>6002</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>1</v>
@@ -2511,7 +2472,7 @@
         <v>5006</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>5</v>
@@ -2525,13 +2486,13 @@
         <v>6003</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>1</v>
@@ -2540,7 +2501,7 @@
         <v>5007</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>5</v>
@@ -2554,13 +2515,13 @@
         <v>6004</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>1</v>
@@ -2569,7 +2530,7 @@
         <v>5008</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>5</v>
@@ -2583,13 +2544,13 @@
         <v>6005</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E56" s="1" t="n">
         <v>1</v>
@@ -2598,7 +2559,7 @@
         <v>5009</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>5</v>
@@ -2612,13 +2573,13 @@
         <v>7001</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>1</v>
@@ -2641,13 +2602,13 @@
         <v>7002</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>1</v>
@@ -2670,13 +2631,13 @@
         <v>7003</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>1</v>
@@ -2699,13 +2660,13 @@
         <v>7004</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>1</v>
@@ -2728,13 +2689,13 @@
         <v>7005</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>1</v>
@@ -2743,7 +2704,7 @@
         <v>6004</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="H61" s="1" t="n">
         <v>6</v>
@@ -2757,13 +2718,13 @@
         <v>8001</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>1</v>
@@ -2772,7 +2733,7 @@
         <v>6005</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H62" s="1" t="n">
         <v>6</v>
@@ -2786,13 +2747,13 @@
         <v>8002</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>1</v>
@@ -2801,7 +2762,7 @@
         <v>6006</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H63" s="1" t="n">
         <v>6</v>
@@ -2815,13 +2776,13 @@
         <v>8003</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>1</v>
@@ -2830,7 +2791,7 @@
         <v>6007</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>6</v>
@@ -2844,13 +2805,13 @@
         <v>8004</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>1</v>
@@ -2859,7 +2820,7 @@
         <v>6008</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H65" s="1" t="n">
         <v>6</v>
@@ -2873,13 +2834,13 @@
         <v>8005</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>1</v>
@@ -2888,7 +2849,7 @@
         <v>6009</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H66" s="1" t="n">
         <v>6</v>
@@ -2902,13 +2863,13 @@
         <v>9001</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>1</v>
@@ -2917,7 +2878,7 @@
         <v>6010</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H67" s="1" t="n">
         <v>6</v>
@@ -2931,13 +2892,13 @@
         <v>9002</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E68" s="1" t="n">
         <v>1</v>
@@ -2946,7 +2907,7 @@
         <v>6011</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H68" s="1" t="n">
         <v>6</v>
@@ -2960,13 +2921,13 @@
         <v>9003</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>1</v>
@@ -2975,7 +2936,7 @@
         <v>6012</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H69" s="1" t="n">
         <v>6</v>
@@ -2989,13 +2950,13 @@
         <v>9004</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E70" s="1" t="n">
         <v>1</v>
@@ -3004,7 +2965,7 @@
         <v>6013</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H70" s="1" t="n">
         <v>6</v>
@@ -3018,13 +2979,13 @@
         <v>9005</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>1</v>
@@ -3033,7 +2994,7 @@
         <v>6014</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H71" s="1" t="n">
         <v>6</v>
@@ -3047,13 +3008,13 @@
         <v>10001</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>1</v>
@@ -3062,7 +3023,7 @@
         <v>6015</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H72" s="1" t="n">
         <v>6</v>
@@ -3076,13 +3037,13 @@
         <v>10002</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E73" s="1" t="n">
         <v>1</v>
@@ -3091,7 +3052,7 @@
         <v>6016</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H73" s="1" t="n">
         <v>6</v>
@@ -3105,13 +3066,13 @@
         <v>10003</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>1</v>
@@ -3120,7 +3081,7 @@
         <v>6017</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H74" s="1" t="n">
         <v>6</v>
@@ -3134,13 +3095,13 @@
         <v>10004</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>1</v>
@@ -3149,7 +3110,7 @@
         <v>6018</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H75" s="1" t="n">
         <v>6</v>
@@ -3163,13 +3124,13 @@
         <v>10005</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E76" s="1" t="n">
         <v>1</v>
@@ -3178,7 +3139,7 @@
         <v>6019</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H76" s="1" t="n">
         <v>6</v>
@@ -3192,13 +3153,13 @@
         <v>101001</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>2</v>
@@ -3207,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H77" s="1" t="n">
         <v>5</v>
@@ -3221,13 +3182,13 @@
         <v>101002</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E78" s="1" t="n">
         <v>2</v>
@@ -3236,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H78" s="1" t="n">
         <v>5</v>
@@ -3250,13 +3211,13 @@
         <v>101003</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E79" s="1" t="n">
         <v>2</v>
@@ -3265,7 +3226,7 @@
         <v>3</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H79" s="1" t="n">
         <v>5</v>
@@ -3279,13 +3240,13 @@
         <v>102001</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E80" s="1" t="n">
         <v>2</v>
@@ -3294,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H80" s="1" t="n">
         <v>6</v>
@@ -3308,13 +3269,13 @@
         <v>102002</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E81" s="1" t="n">
         <v>2</v>
@@ -3323,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H81" s="1" t="n">
         <v>6</v>
@@ -3337,13 +3298,13 @@
         <v>102003</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E82" s="1" t="n">
         <v>2</v>
@@ -3352,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H82" s="1" t="n">
         <v>6</v>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -956,7 +956,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1123,6 +1123,9 @@
       <c r="E6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F6" s="1" t="n">
+        <v>1001</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1149,6 +1152,9 @@
       <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F7" s="1" t="n">
+        <v>1002</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1175,6 +1181,9 @@
       <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F8" s="1" t="n">
+        <v>1003</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1200,6 +1209,9 @@
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1004</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>26</v>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -22,74 +29,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="151">
   <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int[][]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taskName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taskInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taskCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taskType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preconditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rewards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taskSolveType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taskSolvetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">任务名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">任务描述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">任务描述备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">任务类型
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>int[][]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>taskName</t>
+  </si>
+  <si>
+    <t>taskInfo</t>
+  </si>
+  <si>
+    <t>taskCN</t>
+  </si>
+  <si>
+    <t>taskType</t>
+  </si>
+  <si>
+    <t>preconditions</t>
+  </si>
+  <si>
+    <t>rewards</t>
+  </si>
+  <si>
+    <t>taskSolveType</t>
+  </si>
+  <si>
+    <t>taskSolvetime</t>
+  </si>
+  <si>
+    <t>任务名称</t>
+  </si>
+  <si>
+    <t>任务描述</t>
+  </si>
+  <si>
+    <t>任务描述备注</t>
+  </si>
+  <si>
+    <t>任务类型
 1 主线 
 2 日常</t>
   </si>
   <si>
-    <t xml:space="preserve">前置任务
+    <t>前置任务
 第一列的id
 每日任务跟等级挂钩</t>
   </si>
   <si>
-    <t xml:space="preserve">任务奖励</t>
+    <t>任务奖励</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">任务类型
 </t>
     </r>
@@ -97,53 +98,47 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">1.</t>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">通过某关卡</t>
+      <t>通过某关卡</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">id
+      <t>id
 2.</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">解锁科技树某</t>
+      <t>解锁科技树某</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">id</t>
+      <t>id</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">科技
@@ -153,16 +148,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3.</t>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">解锁多少个塔
@@ -172,16 +165,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">4.</t>
+      <t>4.</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">副本获得多少星星
@@ -191,16 +182,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">5.</t>
+      <t>5.</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">游玩几局游戏
@@ -210,137 +199,143 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">6.</t>
+      <t>6.</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">击败多少只怪物</t>
+      <t>击败多少只怪物
+7.完美通过某个关卡
+8.完美游玩次数
+9.部署光塔次数
+10.部署暗塔次数
+11.部署水塔次数
+12.部署火塔次数
+13.部署木塔次数
+14.部署土塔次数</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">任务需要的量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskinfo_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界1·简单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界1·普通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界1·困难</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界2·简单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界2·普通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界2·困难</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界3·简单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界3·普通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界3·困难</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界4·简单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界4·普通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界4·困难</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界5·简单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界5·普通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通关世界5·困难</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskName_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskinfo_2</t>
+    <t>任务需要的量</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Stage_stageName_1</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_1</t>
+  </si>
+  <si>
+    <t>通关世界1·简单</t>
+  </si>
+  <si>
+    <t>1|100</t>
+  </si>
+  <si>
+    <t>Stage_stageName_2</t>
+  </si>
+  <si>
+    <t>通关世界1·普通</t>
+  </si>
+  <si>
+    <t>1|150</t>
+  </si>
+  <si>
+    <t>Stage_stageName_3</t>
+  </si>
+  <si>
+    <t>通关世界1·困难</t>
+  </si>
+  <si>
+    <t>1|200</t>
+  </si>
+  <si>
+    <t>Stage_stageName_4</t>
+  </si>
+  <si>
+    <t>通关世界2·简单</t>
+  </si>
+  <si>
+    <t>Stage_stageName_5</t>
+  </si>
+  <si>
+    <t>通关世界2·普通</t>
+  </si>
+  <si>
+    <t>Stage_stageName_6</t>
+  </si>
+  <si>
+    <t>通关世界2·困难</t>
+  </si>
+  <si>
+    <t>Stage_stageName_7</t>
+  </si>
+  <si>
+    <t>通关世界3·简单</t>
+  </si>
+  <si>
+    <t>Stage_stageName_8</t>
+  </si>
+  <si>
+    <t>通关世界3·普通</t>
+  </si>
+  <si>
+    <t>Stage_stageName_9</t>
+  </si>
+  <si>
+    <t>通关世界3·困难</t>
+  </si>
+  <si>
+    <t>Stage_stageName_10</t>
+  </si>
+  <si>
+    <t>通关世界4·简单</t>
+  </si>
+  <si>
+    <t>Stage_stageName_11</t>
+  </si>
+  <si>
+    <t>通关世界4·普通</t>
+  </si>
+  <si>
+    <t>Stage_stageName_12</t>
+  </si>
+  <si>
+    <t>通关世界4·困难</t>
+  </si>
+  <si>
+    <t>Stage_stageName_13</t>
+  </si>
+  <si>
+    <t>通关世界5·简单</t>
+  </si>
+  <si>
+    <t>Stage_stageName_14</t>
+  </si>
+  <si>
+    <t>通关世界5·普通</t>
+  </si>
+  <si>
+    <t>Stage_stageName_15</t>
+  </si>
+  <si>
+    <t>通关世界5·困难</t>
+  </si>
+  <si>
+    <t>Task_taskName_1</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_2</t>
   </si>
   <si>
     <r>
@@ -348,24 +343,22 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">解锁科技树</t>
+      <t>解锁科技树</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">攻击强化1</t>
+      <t>攻击强化1</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1|10</t>
+    <t>1|10</t>
   </si>
   <si>
     <r>
@@ -373,366 +366,498 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">解锁科技树</t>
+      <t>解锁科技树</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">怪物受伤提高1</t>
+      <t>怪物受伤提高1</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">解锁科技树攻击强化2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树怪物受伤提高2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树攻击强化3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树怪物受伤提高3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树攻击强化4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树怪物受伤提高4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树攻击强化5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树怪物受伤提高5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树攻击强化6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树怪物受伤提高6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树攻击强化7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树怪物受伤提高7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树攻击强化8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树怪物受伤提高8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树攻击强化9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树怪物受伤提高9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树攻击强化10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁科技树怪物受伤提高10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskName_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskinfo_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁塔3个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁塔4个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁塔5个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁塔6个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁塔7个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁塔8个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解锁塔9个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskName_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskinfo_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩游戏2局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩游戏5局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩游戏10局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩游戏15局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩游戏20局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskName_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩游戏25局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩游戏30局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩游戏35局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩游戏40局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩游戏50局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskName_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskinfo_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物50个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物100个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物200个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物400个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物600个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskName_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物800个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物1000个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物1250个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物1500个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物1750个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskName_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物2000个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物2250个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物2500个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物2750个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物3000个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskName_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物3250个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物3500个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物4000个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物4500个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击败怪物5000个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskName_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩1局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|25||3|5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩3局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|75||3|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游玩5局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|100||3|15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_taskName_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|25||3|5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|75||3|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|100||3|15</t>
+    <t>解锁科技树攻击强化2</t>
+  </si>
+  <si>
+    <t>解锁科技树怪物受伤提高2</t>
+  </si>
+  <si>
+    <t>解锁科技树攻击强化3</t>
+  </si>
+  <si>
+    <t>1|15</t>
+  </si>
+  <si>
+    <t>解锁科技树怪物受伤提高3</t>
+  </si>
+  <si>
+    <t>解锁科技树攻击强化4</t>
+  </si>
+  <si>
+    <t>解锁科技树怪物受伤提高4</t>
+  </si>
+  <si>
+    <t>解锁科技树攻击强化5</t>
+  </si>
+  <si>
+    <t>1|20</t>
+  </si>
+  <si>
+    <t>解锁科技树怪物受伤提高5</t>
+  </si>
+  <si>
+    <t>解锁科技树攻击强化6</t>
+  </si>
+  <si>
+    <t>解锁科技树怪物受伤提高6</t>
+  </si>
+  <si>
+    <t>解锁科技树攻击强化7</t>
+  </si>
+  <si>
+    <t>1|25</t>
+  </si>
+  <si>
+    <t>解锁科技树怪物受伤提高7</t>
+  </si>
+  <si>
+    <t>解锁科技树攻击强化8</t>
+  </si>
+  <si>
+    <t>解锁科技树怪物受伤提高8</t>
+  </si>
+  <si>
+    <t>解锁科技树攻击强化9</t>
+  </si>
+  <si>
+    <t>1|30</t>
+  </si>
+  <si>
+    <t>解锁科技树怪物受伤提高9</t>
+  </si>
+  <si>
+    <t>解锁科技树攻击强化10</t>
+  </si>
+  <si>
+    <t>解锁科技树怪物受伤提高10</t>
+  </si>
+  <si>
+    <t>Task_taskName_2</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_3</t>
+  </si>
+  <si>
+    <t>解锁塔3个</t>
+  </si>
+  <si>
+    <t>2|50</t>
+  </si>
+  <si>
+    <t>解锁塔4个</t>
+  </si>
+  <si>
+    <t>解锁塔5个</t>
+  </si>
+  <si>
+    <t>解锁塔6个</t>
+  </si>
+  <si>
+    <t>2|100</t>
+  </si>
+  <si>
+    <t>解锁塔7个</t>
+  </si>
+  <si>
+    <t>解锁塔8个</t>
+  </si>
+  <si>
+    <t>2|150</t>
+  </si>
+  <si>
+    <t>解锁塔9个</t>
+  </si>
+  <si>
+    <t>Task_taskName_3</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_4</t>
+  </si>
+  <si>
+    <t>游玩游戏2局</t>
+  </si>
+  <si>
+    <t>游玩游戏5局</t>
+  </si>
+  <si>
+    <t>游玩游戏10局</t>
+  </si>
+  <si>
+    <t>游玩游戏15局</t>
+  </si>
+  <si>
+    <t>1|40</t>
+  </si>
+  <si>
+    <t>游玩游戏20局</t>
+  </si>
+  <si>
+    <t>1|50</t>
+  </si>
+  <si>
+    <t>Task_taskName_4</t>
+  </si>
+  <si>
+    <t>游玩游戏25局</t>
+  </si>
+  <si>
+    <t>1|60</t>
+  </si>
+  <si>
+    <t>游玩游戏30局</t>
+  </si>
+  <si>
+    <t>1|70</t>
+  </si>
+  <si>
+    <t>游玩游戏35局</t>
+  </si>
+  <si>
+    <t>1|80</t>
+  </si>
+  <si>
+    <t>游玩游戏40局</t>
+  </si>
+  <si>
+    <t>1|90</t>
+  </si>
+  <si>
+    <t>游玩游戏50局</t>
+  </si>
+  <si>
+    <t>Task_taskName_5</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_5</t>
+  </si>
+  <si>
+    <t>击败怪物50个</t>
+  </si>
+  <si>
+    <t>击败怪物100个</t>
+  </si>
+  <si>
+    <t>击败怪物200个</t>
+  </si>
+  <si>
+    <t>击败怪物400个</t>
+  </si>
+  <si>
+    <t>击败怪物600个</t>
+  </si>
+  <si>
+    <t>Task_taskName_6</t>
+  </si>
+  <si>
+    <t>击败怪物800个</t>
+  </si>
+  <si>
+    <t>击败怪物1000个</t>
+  </si>
+  <si>
+    <t>击败怪物1250个</t>
+  </si>
+  <si>
+    <t>击败怪物1500个</t>
+  </si>
+  <si>
+    <t>击败怪物1750个</t>
+  </si>
+  <si>
+    <t>Task_taskName_7</t>
+  </si>
+  <si>
+    <t>击败怪物2000个</t>
+  </si>
+  <si>
+    <t>击败怪物2250个</t>
+  </si>
+  <si>
+    <t>击败怪物2500个</t>
+  </si>
+  <si>
+    <t>击败怪物2750个</t>
+  </si>
+  <si>
+    <t>击败怪物3000个</t>
+  </si>
+  <si>
+    <t>Task_taskName_8</t>
+  </si>
+  <si>
+    <t>击败怪物3250个</t>
+  </si>
+  <si>
+    <t>击败怪物3500个</t>
+  </si>
+  <si>
+    <t>击败怪物4000个</t>
+  </si>
+  <si>
+    <t>击败怪物4500个</t>
+  </si>
+  <si>
+    <t>击败怪物5000个</t>
+  </si>
+  <si>
+    <t>Task_taskName_9</t>
+  </si>
+  <si>
+    <t>游玩1局</t>
+  </si>
+  <si>
+    <t>1|25||3|5</t>
+  </si>
+  <si>
+    <t>游玩3局</t>
+  </si>
+  <si>
+    <t>1|75||3|10</t>
+  </si>
+  <si>
+    <t>游玩5局</t>
+  </si>
+  <si>
+    <t>1|100||3|15</t>
+  </si>
+  <si>
+    <t>Task_taskName_10</t>
+  </si>
+  <si>
+    <t>2|25||3|5</t>
+  </si>
+  <si>
+    <t>2|75||3|10</t>
+  </si>
+  <si>
+    <t>2|100||3|15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,155 +870,814 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="10">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -943,108 +1727,107 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="26.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="42.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="25.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="978" min="10" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="985" min="979" style="1" width="11.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="986" min="986" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="997" min="987" style="1" width="11.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="998" style="1" width="9"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="27.4" style="2" customWidth="1"/>
+    <col min="3" max="5" width="26.1181818181818" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.6090909090909" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.3818181818182" style="3" customWidth="1"/>
+    <col min="8" max="9" width="25.2545454545455" style="2" customWidth="1"/>
+    <col min="10" max="978" width="9" style="2"/>
+    <col min="979" max="985" width="11.6181818181818" style="2" customWidth="1"/>
+    <col min="986" max="986" width="9" style="2"/>
+    <col min="987" max="997" width="11.6181818181818" style="2" customWidth="1"/>
+    <col min="998" max="1024" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.5" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.5" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="366" customHeight="1" spans="1:10">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1053,36 +1836,36 @@
       <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.5" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:9">
+      <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1091,24 +1874,24 @@
       <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8" t="n">
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" ht="15" customHeight="1" spans="1:9">
+      <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1117,27 +1900,27 @@
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
         <v>1001</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8" t="n">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" ht="15" customHeight="1" spans="1:9">
+      <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1146,27 +1929,27 @@
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
         <v>1002</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8" t="n">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
         <v>1003</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" ht="15" customHeight="1" spans="1:9">
+      <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1175,27 +1958,27 @@
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>1003</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="n">
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
         <v>2001</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" ht="15" customHeight="1" spans="1:9">
+      <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1204,27 +1987,27 @@
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="n">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>1004</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8" t="n">
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
         <v>2002</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" ht="15" customHeight="1" spans="1:9">
+      <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1233,24 +2016,24 @@
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8" t="n">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
         <v>2003</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" ht="15" customHeight="1" spans="1:9">
+      <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1259,24 +2042,24 @@
       <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="n">
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
         <v>3001</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" ht="15" customHeight="1" spans="1:9">
+      <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1285,24 +2068,24 @@
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="n">
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
         <v>3002</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" ht="15" customHeight="1" spans="1:9">
+      <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1311,24 +2094,24 @@
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="n">
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
         <v>3003</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" ht="15" customHeight="1" spans="1:9">
+      <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1337,25 +2120,25 @@
       <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <f aca="false">I11+1000</f>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" ref="I14:I19" si="0">I11+1000</f>
         <v>4001</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" ht="15" customHeight="1" spans="1:9">
+      <c r="A15" s="2">
         <v>1011</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1364,25 +2147,25 @@
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <f aca="false">I12+1000</f>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
         <v>4002</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" ht="15" customHeight="1" spans="1:9">
+      <c r="A16" s="2">
         <v>1012</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1391,25 +2174,25 @@
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <f aca="false">I13+1000</f>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
         <v>4003</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" ht="15" customHeight="1" spans="1:9">
+      <c r="A17" s="2">
         <v>1013</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1418,25 +2201,25 @@
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <f aca="false">I14+1000</f>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
         <v>5001</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" ht="15" customHeight="1" spans="1:9">
+      <c r="A18" s="2">
         <v>1014</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1445,25 +2228,25 @@
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <f aca="false">I15+1000</f>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
         <v>5002</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" ht="15" customHeight="1" spans="1:9">
+      <c r="A19" s="2">
         <v>1015</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1472,25 +2255,25 @@
       <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <f aca="false">I16+1000</f>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
         <v>5003</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" ht="15" customHeight="1" spans="1:9">
+      <c r="A20" s="2">
         <v>2001</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1499,27 +2282,27 @@
       <c r="C20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="n">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>1001</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="2">
         <v>2</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="2">
         <v>1001</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" ht="15" customHeight="1" spans="1:9">
+      <c r="A21" s="2">
         <v>2002</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1528,27 +2311,27 @@
       <c r="C21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="n">
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
         <v>2001</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="2">
         <v>2</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="2">
         <v>1004</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" ht="15" customHeight="1" spans="1:9">
+      <c r="A22" s="2">
         <v>2003</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1557,28 +2340,28 @@
       <c r="C22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="n">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
         <v>2002</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="2">
         <v>2</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <f aca="false">I20+10</f>
+      <c r="I22" s="2">
+        <f t="shared" ref="I22:I39" si="1">I20+10</f>
         <v>1011</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" ht="15" customHeight="1" spans="1:9">
+      <c r="A23" s="2">
         <v>2004</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1587,28 +2370,28 @@
       <c r="C23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="n">
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
         <v>2003</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="2">
         <v>2</v>
       </c>
-      <c r="I23" s="1" t="n">
-        <f aca="false">I21+10</f>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
         <v>1014</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" ht="15" customHeight="1" spans="1:9">
+      <c r="A24" s="2">
         <v>2005</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1617,28 +2400,28 @@
       <c r="C24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="n">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
         <v>2004</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="2">
         <v>2</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <f aca="false">I22+10</f>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
         <v>1021</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" ht="15" customHeight="1" spans="1:9">
+      <c r="A25" s="2">
         <v>2006</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1647,28 +2430,28 @@
       <c r="C25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="n">
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
         <v>2005</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="2">
         <v>2</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <f aca="false">I23+10</f>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" ht="15" customHeight="1" spans="1:9">
+      <c r="A26" s="2">
         <v>2007</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1677,28 +2460,28 @@
       <c r="C26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="n">
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
         <v>2006</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="2">
         <v>2</v>
       </c>
-      <c r="I26" s="1" t="n">
-        <f aca="false">I24+10</f>
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
         <v>1031</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" ht="15" customHeight="1" spans="1:9">
+      <c r="A27" s="2">
         <v>2008</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1707,28 +2490,28 @@
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="n">
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
         <v>2007</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="2">
         <v>2</v>
       </c>
-      <c r="I27" s="1" t="n">
-        <f aca="false">I25+10</f>
+      <c r="I27" s="2">
+        <f t="shared" si="1"/>
         <v>1034</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" ht="15" customHeight="1" spans="1:9">
+      <c r="A28" s="2">
         <v>2009</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -1737,28 +2520,28 @@
       <c r="C28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="n">
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
         <v>2008</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="2">
         <v>2</v>
       </c>
-      <c r="I28" s="1" t="n">
-        <f aca="false">I26+10</f>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
         <v>1041</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" ht="15" customHeight="1" spans="1:9">
+      <c r="A29" s="2">
         <v>2010</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1767,28 +2550,28 @@
       <c r="C29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="n">
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
         <v>2009</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="2">
         <v>2</v>
       </c>
-      <c r="I29" s="1" t="n">
-        <f aca="false">I27+10</f>
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
         <v>1044</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" ht="15" customHeight="1" spans="1:9">
+      <c r="A30" s="2">
         <v>2011</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1797,28 +2580,28 @@
       <c r="C30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="n">
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
         <v>2010</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="2">
         <v>2</v>
       </c>
-      <c r="I30" s="1" t="n">
-        <f aca="false">I28+10</f>
+      <c r="I30" s="2">
+        <f t="shared" si="1"/>
         <v>1051</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" ht="15" customHeight="1" spans="1:9">
+      <c r="A31" s="2">
         <v>2012</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1827,28 +2610,28 @@
       <c r="C31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="n">
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
         <v>2011</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="2">
         <v>2</v>
       </c>
-      <c r="I31" s="1" t="n">
-        <f aca="false">I29+10</f>
+      <c r="I31" s="2">
+        <f t="shared" si="1"/>
         <v>1054</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" ht="15" customHeight="1" spans="1:9">
+      <c r="A32" s="2">
         <v>2013</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1857,28 +2640,28 @@
       <c r="C32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="n">
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
         <v>2012</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="2">
         <v>2</v>
       </c>
-      <c r="I32" s="1" t="n">
-        <f aca="false">I30+10</f>
+      <c r="I32" s="2">
+        <f t="shared" si="1"/>
         <v>1061</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" ht="15" customHeight="1" spans="1:9">
+      <c r="A33" s="2">
         <v>2014</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1887,28 +2670,28 @@
       <c r="C33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="n">
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
         <v>2013</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="2">
         <v>2</v>
       </c>
-      <c r="I33" s="1" t="n">
-        <f aca="false">I31+10</f>
+      <c r="I33" s="2">
+        <f t="shared" si="1"/>
         <v>1064</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" ht="15" customHeight="1" spans="1:9">
+      <c r="A34" s="2">
         <v>2015</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -1917,28 +2700,28 @@
       <c r="C34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="n">
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
         <v>2014</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="H34" s="2">
         <v>2</v>
       </c>
-      <c r="I34" s="1" t="n">
-        <f aca="false">I32+10</f>
+      <c r="I34" s="2">
+        <f t="shared" si="1"/>
         <v>1071</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" ht="15" customHeight="1" spans="1:9">
+      <c r="A35" s="2">
         <v>2016</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -1947,28 +2730,28 @@
       <c r="C35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="n">
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
         <v>2015</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="2">
         <v>2</v>
       </c>
-      <c r="I35" s="1" t="n">
-        <f aca="false">I33+10</f>
+      <c r="I35" s="2">
+        <f t="shared" si="1"/>
         <v>1074</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" ht="15" customHeight="1" spans="1:9">
+      <c r="A36" s="2">
         <v>2017</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -1977,28 +2760,28 @@
       <c r="C36" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="n">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
         <v>2016</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="I36" s="1" t="n">
-        <f aca="false">I34+10</f>
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
         <v>1081</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" ht="15" customHeight="1" spans="1:9">
+      <c r="A37" s="2">
         <v>2018</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2007,28 +2790,28 @@
       <c r="C37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="n">
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
         <v>2017</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="2">
         <v>2</v>
       </c>
-      <c r="I37" s="1" t="n">
-        <f aca="false">I35+10</f>
+      <c r="I37" s="2">
+        <f t="shared" si="1"/>
         <v>1084</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" ht="15" customHeight="1" spans="1:9">
+      <c r="A38" s="2">
         <v>2019</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -2037,28 +2820,28 @@
       <c r="C38" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="n">
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
         <v>2018</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="2">
         <v>2</v>
       </c>
-      <c r="I38" s="1" t="n">
-        <f aca="false">I36+10</f>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
         <v>1091</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" ht="15" customHeight="1" spans="1:9">
+      <c r="A39" s="2">
         <v>2020</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -2067,28 +2850,28 @@
       <c r="C39" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="n">
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
         <v>2019</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="1" t="n">
+      <c r="H39" s="2">
         <v>2</v>
       </c>
-      <c r="I39" s="1" t="n">
-        <f aca="false">I37+10</f>
+      <c r="I39" s="2">
+        <f t="shared" si="1"/>
         <v>1094</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" ht="15" customHeight="1" spans="1:9">
+      <c r="A40" s="2">
         <v>3001</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -2097,27 +2880,27 @@
       <c r="C40" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="n">
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
         <v>1001</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H40" s="1" t="n">
+      <c r="H40" s="2">
         <v>3</v>
       </c>
-      <c r="I40" s="1" t="n">
+      <c r="I40" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" ht="15" customHeight="1" spans="1:9">
+      <c r="A41" s="2">
         <v>3002</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -2126,27 +2909,27 @@
       <c r="C41" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="n">
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
         <v>3001</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H41" s="1" t="n">
+      <c r="H41" s="2">
         <v>3</v>
       </c>
-      <c r="I41" s="1" t="n">
+      <c r="I41" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" ht="15" customHeight="1" spans="1:9">
+      <c r="A42" s="2">
         <v>3003</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -2155,27 +2938,27 @@
       <c r="C42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="n">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
         <v>3002</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="1" t="n">
+      <c r="H42" s="2">
         <v>3</v>
       </c>
-      <c r="I42" s="1" t="n">
+      <c r="I42" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" ht="15" customHeight="1" spans="1:9">
+      <c r="A43" s="2">
         <v>3004</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -2184,27 +2967,27 @@
       <c r="C43" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="n">
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
         <v>3003</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H43" s="1" t="n">
+      <c r="H43" s="2">
         <v>3</v>
       </c>
-      <c r="I43" s="1" t="n">
+      <c r="I43" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" ht="15" customHeight="1" spans="1:9">
+      <c r="A44" s="2">
         <v>3005</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -2213,27 +2996,27 @@
       <c r="C44" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="n">
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
         <v>3004</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H44" s="1" t="n">
+      <c r="H44" s="2">
         <v>3</v>
       </c>
-      <c r="I44" s="1" t="n">
+      <c r="I44" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" ht="15" customHeight="1" spans="1:9">
+      <c r="A45" s="2">
         <v>3006</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -2242,27 +3025,27 @@
       <c r="C45" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="n">
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
         <v>3005</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H45" s="1" t="n">
+      <c r="H45" s="2">
         <v>3</v>
       </c>
-      <c r="I45" s="1" t="n">
+      <c r="I45" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" ht="15" customHeight="1" spans="1:9">
+      <c r="A46" s="2">
         <v>3007</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -2271,27 +3054,27 @@
       <c r="C46" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1" t="n">
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
         <v>3006</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H46" s="1" t="n">
+      <c r="H46" s="2">
         <v>3</v>
       </c>
-      <c r="I46" s="1" t="n">
+      <c r="I46" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" ht="15" customHeight="1" spans="1:9">
+      <c r="A47" s="2">
         <v>5001</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2300,27 +3083,27 @@
       <c r="C47" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="n">
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
         <v>1001</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="1" t="n">
+      <c r="H47" s="2">
         <v>5</v>
       </c>
-      <c r="I47" s="1" t="n">
+      <c r="I47" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" ht="15" customHeight="1" spans="1:9">
+      <c r="A48" s="2">
         <v>5002</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -2329,27 +3112,27 @@
       <c r="C48" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="n">
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
         <v>5001</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="1" t="n">
+      <c r="H48" s="2">
         <v>5</v>
       </c>
-      <c r="I48" s="1" t="n">
+      <c r="I48" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" ht="15" customHeight="1" spans="1:9">
+      <c r="A49" s="2">
         <v>5003</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -2358,27 +3141,27 @@
       <c r="C49" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="n">
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
         <v>5002</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H49" s="1" t="n">
+      <c r="H49" s="2">
         <v>5</v>
       </c>
-      <c r="I49" s="1" t="n">
+      <c r="I49" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" ht="15" customHeight="1" spans="1:9">
+      <c r="A50" s="2">
         <v>5004</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -2387,27 +3170,27 @@
       <c r="C50" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="n">
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
         <v>5003</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H50" s="1" t="n">
+      <c r="H50" s="2">
         <v>5</v>
       </c>
-      <c r="I50" s="1" t="n">
+      <c r="I50" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" ht="15" customHeight="1" spans="1:9">
+      <c r="A51" s="2">
         <v>5005</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -2416,27 +3199,27 @@
       <c r="C51" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="n">
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
         <v>5004</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H51" s="1" t="n">
+      <c r="H51" s="2">
         <v>5</v>
       </c>
-      <c r="I51" s="1" t="n">
+      <c r="I51" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" ht="15" customHeight="1" spans="1:9">
+      <c r="A52" s="2">
         <v>6001</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -2445,27 +3228,27 @@
       <c r="C52" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="n">
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
         <v>5005</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="1" t="n">
+      <c r="H52" s="2">
         <v>5</v>
       </c>
-      <c r="I52" s="1" t="n">
+      <c r="I52" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" ht="15" customHeight="1" spans="1:9">
+      <c r="A53" s="2">
         <v>6002</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -2474,27 +3257,27 @@
       <c r="C53" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="n">
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
         <v>5006</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H53" s="1" t="n">
+      <c r="H53" s="2">
         <v>5</v>
       </c>
-      <c r="I53" s="1" t="n">
+      <c r="I53" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" ht="15" customHeight="1" spans="1:9">
+      <c r="A54" s="2">
         <v>6003</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -2503,27 +3286,27 @@
       <c r="C54" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="n">
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
         <v>5007</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H54" s="1" t="n">
+      <c r="H54" s="2">
         <v>5</v>
       </c>
-      <c r="I54" s="1" t="n">
+      <c r="I54" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" ht="15" customHeight="1" spans="1:9">
+      <c r="A55" s="2">
         <v>6004</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -2532,27 +3315,27 @@
       <c r="C55" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1" t="n">
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
         <v>5008</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H55" s="1" t="n">
+      <c r="H55" s="2">
         <v>5</v>
       </c>
-      <c r="I55" s="1" t="n">
+      <c r="I55" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" ht="15" customHeight="1" spans="1:9">
+      <c r="A56" s="2">
         <v>6005</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -2561,27 +3344,27 @@
       <c r="C56" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="n">
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
         <v>5009</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H56" s="1" t="n">
+      <c r="H56" s="2">
         <v>5</v>
       </c>
-      <c r="I56" s="1" t="n">
+      <c r="I56" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" ht="15" customHeight="1" spans="1:9">
+      <c r="A57" s="2">
         <v>7001</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -2590,27 +3373,27 @@
       <c r="C57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="n">
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
         <v>1001</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="1" t="n">
+      <c r="H57" s="2">
         <v>6</v>
       </c>
-      <c r="I57" s="1" t="n">
+      <c r="I57" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="n">
+    <row r="58" ht="15" customHeight="1" spans="1:9">
+      <c r="A58" s="8">
         <v>7002</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -2619,27 +3402,27 @@
       <c r="C58" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1" t="n">
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
         <v>6001</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H58" s="1" t="n">
+      <c r="H58" s="2">
         <v>6</v>
       </c>
-      <c r="I58" s="1" t="n">
+      <c r="I58" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="n">
+    <row r="59" ht="15" customHeight="1" spans="1:9">
+      <c r="A59" s="8">
         <v>7003</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -2648,27 +3431,27 @@
       <c r="C59" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="n">
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
         <v>6002</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H59" s="1" t="n">
+      <c r="H59" s="2">
         <v>6</v>
       </c>
-      <c r="I59" s="1" t="n">
+      <c r="I59" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="n">
+    <row r="60" spans="1:9">
+      <c r="A60" s="8">
         <v>7004</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -2677,27 +3460,27 @@
       <c r="C60" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1" t="n">
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
         <v>6003</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H60" s="1" t="n">
+      <c r="H60" s="2">
         <v>6</v>
       </c>
-      <c r="I60" s="1" t="n">
+      <c r="I60" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
+    <row r="61" spans="1:9">
+      <c r="A61" s="8">
         <v>7005</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -2706,27 +3489,27 @@
       <c r="C61" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="n">
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
         <v>6004</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="1" t="n">
+      <c r="H61" s="2">
         <v>6</v>
       </c>
-      <c r="I61" s="1" t="n">
+      <c r="I61" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="n">
+    <row r="62" spans="1:9">
+      <c r="A62" s="8">
         <v>8001</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -2735,27 +3518,27 @@
       <c r="C62" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1" t="n">
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
         <v>6005</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H62" s="1" t="n">
+      <c r="H62" s="2">
         <v>6</v>
       </c>
-      <c r="I62" s="1" t="n">
+      <c r="I62" s="2">
         <v>800</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="n">
+    <row r="63" spans="1:9">
+      <c r="A63" s="8">
         <v>8002</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -2764,27 +3547,27 @@
       <c r="C63" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1" t="n">
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
         <v>6006</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H63" s="1" t="n">
+      <c r="H63" s="2">
         <v>6</v>
       </c>
-      <c r="I63" s="1" t="n">
+      <c r="I63" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="n">
+    <row r="64" spans="1:9">
+      <c r="A64" s="8">
         <v>8003</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -2793,27 +3576,27 @@
       <c r="C64" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1" t="n">
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
         <v>6007</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H64" s="1" t="n">
+      <c r="H64" s="2">
         <v>6</v>
       </c>
-      <c r="I64" s="1" t="n">
+      <c r="I64" s="2">
         <v>1250</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="n">
+    <row r="65" spans="1:9">
+      <c r="A65" s="8">
         <v>8004</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -2822,27 +3605,27 @@
       <c r="C65" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="n">
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
         <v>6008</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H65" s="1" t="n">
+      <c r="H65" s="2">
         <v>6</v>
       </c>
-      <c r="I65" s="1" t="n">
+      <c r="I65" s="2">
         <v>1500</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="n">
+    <row r="66" spans="1:9">
+      <c r="A66" s="8">
         <v>8005</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -2851,27 +3634,27 @@
       <c r="C66" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1" t="n">
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
         <v>6009</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="1" t="n">
+      <c r="H66" s="2">
         <v>6</v>
       </c>
-      <c r="I66" s="1" t="n">
+      <c r="I66" s="2">
         <v>1750</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="n">
+    <row r="67" spans="1:9">
+      <c r="A67" s="8">
         <v>9001</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -2880,27 +3663,27 @@
       <c r="C67" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1" t="n">
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
         <v>6010</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H67" s="1" t="n">
+      <c r="H67" s="2">
         <v>6</v>
       </c>
-      <c r="I67" s="1" t="n">
+      <c r="I67" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="n">
+    <row r="68" spans="1:9">
+      <c r="A68" s="8">
         <v>9002</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -2909,27 +3692,27 @@
       <c r="C68" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E68" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1" t="n">
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
         <v>6011</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="1" t="n">
+      <c r="H68" s="2">
         <v>6</v>
       </c>
-      <c r="I68" s="1" t="n">
+      <c r="I68" s="2">
         <v>2250</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="n">
+    <row r="69" spans="1:9">
+      <c r="A69" s="8">
         <v>9003</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -2938,27 +3721,27 @@
       <c r="C69" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1" t="n">
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
         <v>6012</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="1" t="n">
+      <c r="H69" s="2">
         <v>6</v>
       </c>
-      <c r="I69" s="1" t="n">
+      <c r="I69" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="n">
+    <row r="70" spans="1:9">
+      <c r="A70" s="8">
         <v>9004</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -2967,27 +3750,27 @@
       <c r="C70" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1" t="n">
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
         <v>6013</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="1" t="n">
+      <c r="H70" s="2">
         <v>6</v>
       </c>
-      <c r="I70" s="1" t="n">
+      <c r="I70" s="2">
         <v>2750</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="n">
+    <row r="71" spans="1:9">
+      <c r="A71" s="8">
         <v>9005</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -2996,27 +3779,27 @@
       <c r="C71" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1" t="n">
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
         <v>6014</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H71" s="1" t="n">
+      <c r="H71" s="2">
         <v>6</v>
       </c>
-      <c r="I71" s="1" t="n">
+      <c r="I71" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="n">
+    <row r="72" spans="1:9">
+      <c r="A72" s="8">
         <v>10001</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -3025,27 +3808,27 @@
       <c r="C72" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1" t="n">
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
         <v>6015</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="1" t="n">
+      <c r="H72" s="2">
         <v>6</v>
       </c>
-      <c r="I72" s="1" t="n">
+      <c r="I72" s="2">
         <v>3250</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="n">
+    <row r="73" spans="1:9">
+      <c r="A73" s="8">
         <v>10002</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -3054,27 +3837,27 @@
       <c r="C73" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1" t="n">
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
         <v>6016</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="1" t="n">
+      <c r="H73" s="2">
         <v>6</v>
       </c>
-      <c r="I73" s="1" t="n">
+      <c r="I73" s="2">
         <v>3500</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="n">
+    <row r="74" spans="1:9">
+      <c r="A74" s="8">
         <v>10003</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -3083,27 +3866,27 @@
       <c r="C74" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1" t="n">
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
         <v>6017</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H74" s="1" t="n">
+      <c r="H74" s="2">
         <v>6</v>
       </c>
-      <c r="I74" s="1" t="n">
+      <c r="I74" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="n">
+    <row r="75" spans="1:9">
+      <c r="A75" s="8">
         <v>10004</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -3112,27 +3895,27 @@
       <c r="C75" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E75" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1" t="n">
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
         <v>6018</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="1" t="n">
+      <c r="H75" s="2">
         <v>6</v>
       </c>
-      <c r="I75" s="1" t="n">
+      <c r="I75" s="2">
         <v>4500</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="n">
+    <row r="76" spans="1:9">
+      <c r="A76" s="8">
         <v>10005</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -3141,27 +3924,27 @@
       <c r="C76" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1" t="n">
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
         <v>6019</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H76" s="1" t="n">
+      <c r="H76" s="2">
         <v>6</v>
       </c>
-      <c r="I76" s="1" t="n">
+      <c r="I76" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:9">
+      <c r="A77" s="2">
         <v>101001</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -3170,27 +3953,27 @@
       <c r="C77" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E77" s="1" t="n">
+      <c r="E77" s="2">
         <v>2</v>
       </c>
-      <c r="F77" s="1" t="n">
+      <c r="F77" s="2">
         <v>3</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H77" s="1" t="n">
+      <c r="H77" s="2">
         <v>5</v>
       </c>
-      <c r="I77" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="2">
         <v>101002</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -3199,27 +3982,27 @@
       <c r="C78" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E78" s="1" t="n">
+      <c r="E78" s="2">
         <v>2</v>
       </c>
-      <c r="F78" s="1" t="n">
+      <c r="F78" s="2">
         <v>3</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H78" s="1" t="n">
+      <c r="H78" s="2">
         <v>5</v>
       </c>
-      <c r="I78" s="1" t="n">
+      <c r="I78" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:9">
+      <c r="A79" s="2">
         <v>101003</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -3228,27 +4011,27 @@
       <c r="C79" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E79" s="1" t="n">
+      <c r="E79" s="2">
         <v>2</v>
       </c>
-      <c r="F79" s="1" t="n">
+      <c r="F79" s="2">
         <v>3</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H79" s="1" t="n">
+      <c r="H79" s="2">
         <v>5</v>
       </c>
-      <c r="I79" s="1" t="n">
+      <c r="I79" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:9">
+      <c r="A80" s="2">
         <v>102001</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -3257,27 +4040,27 @@
       <c r="C80" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E80" s="1" t="n">
+      <c r="E80" s="2">
         <v>2</v>
       </c>
-      <c r="F80" s="1" t="n">
+      <c r="F80" s="2">
         <v>3</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="1" t="n">
+      <c r="H80" s="2">
         <v>6</v>
       </c>
-      <c r="I80" s="1" t="n">
+      <c r="I80" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:9">
+      <c r="A81" s="2">
         <v>102002</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -3286,27 +4069,27 @@
       <c r="C81" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="1" t="n">
+      <c r="E81" s="2">
         <v>2</v>
       </c>
-      <c r="F81" s="1" t="n">
+      <c r="F81" s="2">
         <v>3</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H81" s="1" t="n">
+      <c r="H81" s="2">
         <v>6</v>
       </c>
-      <c r="I81" s="1" t="n">
+      <c r="I81" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:9">
+      <c r="A82" s="2">
         <v>102003</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -3315,32 +4098,28 @@
       <c r="C82" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="1" t="n">
+      <c r="E82" s="2">
         <v>2</v>
       </c>
-      <c r="F82" s="1" t="n">
+      <c r="F82" s="2">
         <v>3</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="1" t="n">
+      <c r="H82" s="2">
         <v>6</v>
       </c>
-      <c r="I82" s="1" t="n">
+      <c r="I82" s="2">
         <v>400</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -217,7 +217,10 @@
 11.部署水塔次数
 12.部署火塔次数
 13.部署木塔次数
-14.部署土塔次数</t>
+14.部署土塔次数
+15.玩家级数
+16.无尽模式的波次
+17.升级lv3 次数</t>
     </r>
   </si>
   <si>
@@ -658,7 +661,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -844,11 +847,6 @@
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1739,7 +1737,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17600" tabRatio="500"/>
+    <workbookView windowWidth="14670" windowHeight="15080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,11 @@
 14.部署土塔次数
 15.玩家级数
 16.无尽模式的波次
-17.升级lv3 次数</t>
+17.升级lv3 次数
+18.击败多少只复原力怪物
+19.击败多少只狂暴怪物
+20.击败多少只飞行怪物
+21.击败多少只隐身怪物</t>
     </r>
   </si>
   <si>
@@ -1737,7 +1741,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14670" windowHeight="15080" tabRatio="500"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,12 +219,15 @@
 13.部署木塔次数
 14.部署土塔次数
 15.玩家级数
-16.无尽模式的波次
+16.无尽模式的波次（只支持主线）
 17.升级lv3 次数
 18.击败多少只复原力怪物
 19.击败多少只狂暴怪物
 20.击败多少只飞行怪物
-21.击败多少只隐身怪物</t>
+21.击败多少只隐身怪物
+22.挑战无尽关卡的次数
+23.无尽关卡的boss击杀次数
+24.升级防御塔的次数</t>
     </r>
   </si>
   <si>
@@ -1739,9 +1742,9 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1819,7 +1822,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="366" customHeight="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="409" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -227,7 +227,8 @@
 21.击败多少只隐身怪物
 22.挑战无尽关卡的次数
 23.无尽关卡的boss击杀次数
-24.升级防御塔的次数</t>
+24.升级防御塔的次数
+25.日常解锁一次塔（只支持日常）</t>
     </r>
   </si>
   <si>
@@ -1744,7 +1745,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="174">
   <si>
     <t>int</t>
   </si>
@@ -91,6 +91,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">任务类型
 </t>
     </r>
@@ -657,6 +662,75 @@
   </si>
   <si>
     <t>2|100||3|15</t>
+  </si>
+  <si>
+    <t>1|2000</t>
+  </si>
+  <si>
+    <t>完美通关世界1·困难</t>
+  </si>
+  <si>
+    <t>1|2001</t>
+  </si>
+  <si>
+    <t>解锁塔38个</t>
+  </si>
+  <si>
+    <t>1|38</t>
+  </si>
+  <si>
+    <t>游玩游戏3局</t>
+  </si>
+  <si>
+    <t>1|105</t>
+  </si>
+  <si>
+    <t>完美游玩游戏3局</t>
+  </si>
+  <si>
+    <t>1|108</t>
+  </si>
+  <si>
+    <t>击败怪物5个</t>
+  </si>
+  <si>
+    <t>1|106</t>
+  </si>
+  <si>
+    <t>部署光龙娘1个</t>
+  </si>
+  <si>
+    <t>1|109</t>
+  </si>
+  <si>
+    <t>部署暗龙娘1个</t>
+  </si>
+  <si>
+    <t>1|110</t>
+  </si>
+  <si>
+    <t>部署水龙娘1个</t>
+  </si>
+  <si>
+    <t>1|111</t>
+  </si>
+  <si>
+    <t>部署火龙娘1个</t>
+  </si>
+  <si>
+    <t>1|112</t>
+  </si>
+  <si>
+    <t>部署木龙娘1个</t>
+  </si>
+  <si>
+    <t>1|113</t>
+  </si>
+  <si>
+    <t>部署土龙娘1个</t>
+  </si>
+  <si>
+    <t>1|114</t>
   </si>
 </sst>
 </file>
@@ -863,7 +937,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -874,6 +948,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1200,7 +1280,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1224,16 +1304,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1242,89 +1322,89 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1354,6 +1434,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1740,12 +1829,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96:I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4123,6 +4212,330 @@
         <v>400</v>
       </c>
     </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="10">
+        <v>100000</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="10">
+        <v>1</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H83" s="10">
+        <v>1</v>
+      </c>
+      <c r="I83" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="10">
+        <v>100001</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="10">
+        <v>1</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H84" s="10">
+        <v>7</v>
+      </c>
+      <c r="I84" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="10">
+        <v>100002</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E85" s="10">
+        <v>1</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H85" s="10">
+        <v>3</v>
+      </c>
+      <c r="I85" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="10">
+        <v>100003</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E86" s="10">
+        <v>1</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H86" s="10">
+        <v>5</v>
+      </c>
+      <c r="I86" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="10">
+        <v>100004</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E87" s="10">
+        <v>1</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H87" s="10">
+        <v>8</v>
+      </c>
+      <c r="I87" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="10">
+        <v>100005</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" s="10">
+        <v>1</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H88" s="10">
+        <v>6</v>
+      </c>
+      <c r="I88" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="2">
+        <v>100006</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H89" s="2">
+        <v>9</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="2">
+        <v>100007</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H90" s="2">
+        <v>10</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="2">
+        <v>100008</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H91" s="2">
+        <v>11</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="2">
+        <v>100009</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H92" s="2">
+        <v>12</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="2">
+        <v>100010</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H93" s="2">
+        <v>13</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="2">
+        <v>100011</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H94" s="2">
+        <v>14</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="188">
   <si>
     <t>int</t>
   </si>
@@ -91,11 +91,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">任务类型
 </t>
     </r>
@@ -731,6 +726,48 @@
   </si>
   <si>
     <t>1|114</t>
+  </si>
+  <si>
+    <t>等级到达18级</t>
+  </si>
+  <si>
+    <t>1|115</t>
+  </si>
+  <si>
+    <t>抵御无尽关卡5波</t>
+  </si>
+  <si>
+    <t>1|116</t>
+  </si>
+  <si>
+    <t>累计升级lv3 5次</t>
+  </si>
+  <si>
+    <t>1|117</t>
+  </si>
+  <si>
+    <t>击败复原力5只</t>
+  </si>
+  <si>
+    <t>1|118</t>
+  </si>
+  <si>
+    <t>击败狂暴5只</t>
+  </si>
+  <si>
+    <t>1|119</t>
+  </si>
+  <si>
+    <t>击败飞行5只</t>
+  </si>
+  <si>
+    <t>1|120</t>
+  </si>
+  <si>
+    <t>击败隐身5只</t>
+  </si>
+  <si>
+    <t>1|121</t>
   </si>
 </sst>
 </file>
@@ -1829,12 +1866,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I96" sqref="I96:I97"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4390,7 +4427,6 @@
       <c r="E89" s="2">
         <v>1</v>
       </c>
-      <c r="F89" s="2"/>
       <c r="G89" s="3" t="s">
         <v>163</v>
       </c>
@@ -4417,7 +4453,6 @@
       <c r="E90" s="2">
         <v>1</v>
       </c>
-      <c r="F90" s="2"/>
       <c r="G90" s="3" t="s">
         <v>165</v>
       </c>
@@ -4444,7 +4479,6 @@
       <c r="E91" s="2">
         <v>1</v>
       </c>
-      <c r="F91" s="2"/>
       <c r="G91" s="3" t="s">
         <v>167</v>
       </c>
@@ -4471,7 +4505,6 @@
       <c r="E92" s="2">
         <v>1</v>
       </c>
-      <c r="F92" s="2"/>
       <c r="G92" s="3" t="s">
         <v>169</v>
       </c>
@@ -4498,7 +4531,6 @@
       <c r="E93" s="2">
         <v>1</v>
       </c>
-      <c r="F93" s="2"/>
       <c r="G93" s="3" t="s">
         <v>171</v>
       </c>
@@ -4525,7 +4557,6 @@
       <c r="E94" s="2">
         <v>1</v>
       </c>
-      <c r="F94" s="2"/>
       <c r="G94" s="3" t="s">
         <v>173</v>
       </c>
@@ -4534,6 +4565,193 @@
       </c>
       <c r="I94" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="10">
+        <v>100012</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" s="10">
+        <v>1</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H95" s="10">
+        <v>15</v>
+      </c>
+      <c r="I95" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="10">
+        <v>100013</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E96" s="10">
+        <v>1</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H96" s="10">
+        <v>16</v>
+      </c>
+      <c r="I96" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="10">
+        <v>100014</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97" s="10">
+        <v>1</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H97" s="10">
+        <v>17</v>
+      </c>
+      <c r="I97" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="2">
+        <v>100015</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H98" s="2">
+        <v>18</v>
+      </c>
+      <c r="I98" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="10">
+        <v>100016</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E99" s="10">
+        <v>1</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H99" s="10">
+        <v>19</v>
+      </c>
+      <c r="I99" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="10">
+        <v>100017</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" s="10">
+        <v>1</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H100" s="10">
+        <v>20</v>
+      </c>
+      <c r="I100" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="2">
+        <v>100018</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H101" s="2">
+        <v>21</v>
+      </c>
+      <c r="I101" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="209">
   <si>
     <t>int</t>
   </si>
@@ -768,6 +768,69 @@
   </si>
   <si>
     <t>1|121</t>
+  </si>
+  <si>
+    <t>游玩游戏1局</t>
+  </si>
+  <si>
+    <t>1|1052</t>
+  </si>
+  <si>
+    <t>完美游玩游戏1局</t>
+  </si>
+  <si>
+    <t>1|1082</t>
+  </si>
+  <si>
+    <t>挑战无尽关卡的1次</t>
+  </si>
+  <si>
+    <t>1|1222</t>
+  </si>
+  <si>
+    <t>1|1062</t>
+  </si>
+  <si>
+    <t>击败无尽关卡boss 1个</t>
+  </si>
+  <si>
+    <t>1|1232</t>
+  </si>
+  <si>
+    <t>1|1092</t>
+  </si>
+  <si>
+    <t>1|1102</t>
+  </si>
+  <si>
+    <t>1|1112</t>
+  </si>
+  <si>
+    <t>1|1122</t>
+  </si>
+  <si>
+    <t>1|1132</t>
+  </si>
+  <si>
+    <t>1|1142</t>
+  </si>
+  <si>
+    <t>累计升级lv3 1次</t>
+  </si>
+  <si>
+    <t>1|1172</t>
+  </si>
+  <si>
+    <t>1|1182</t>
+  </si>
+  <si>
+    <t>1|1192</t>
+  </si>
+  <si>
+    <t>1|1202</t>
+  </si>
+  <si>
+    <t>1|1212</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1479,6 +1542,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1866,12 +1938,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4415,25 +4487,26 @@
       <c r="A89" s="2">
         <v>100006</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E89" s="2">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="E89" s="10">
+        <v>1</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="10">
         <v>9</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4441,25 +4514,26 @@
       <c r="A90" s="2">
         <v>100007</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E90" s="2">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="E90" s="10">
+        <v>1</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="10">
         <v>10</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4467,25 +4541,26 @@
       <c r="A91" s="2">
         <v>100008</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E91" s="2">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="E91" s="10">
+        <v>1</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="10">
         <v>11</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I91" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4493,25 +4568,26 @@
       <c r="A92" s="2">
         <v>100009</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="E92" s="10">
+        <v>1</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="10">
         <v>12</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4519,25 +4595,26 @@
       <c r="A93" s="2">
         <v>100010</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="E93" s="10">
+        <v>1</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="10">
         <v>13</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4545,25 +4622,26 @@
       <c r="A94" s="2">
         <v>100011</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="E94" s="10">
+        <v>1</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="10">
         <v>14</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4751,6 +4829,470 @@
         <v>21</v>
       </c>
       <c r="I101" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="2">
+        <v>100019</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" s="10">
+        <v>2</v>
+      </c>
+      <c r="F102" s="10">
+        <v>1</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H102" s="10">
+        <v>5</v>
+      </c>
+      <c r="I102" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="2">
+        <v>100020</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E103" s="14">
+        <v>2</v>
+      </c>
+      <c r="F103" s="14">
+        <v>1</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H103" s="14">
+        <v>8</v>
+      </c>
+      <c r="I103" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="2">
+        <v>100021</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E104" s="10">
+        <v>2</v>
+      </c>
+      <c r="F104" s="10">
+        <v>1</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H104" s="10">
+        <v>22</v>
+      </c>
+      <c r="I104" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="2">
+        <v>100022</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" s="10">
+        <v>2</v>
+      </c>
+      <c r="F105" s="10">
+        <v>1</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H105" s="10">
+        <v>6</v>
+      </c>
+      <c r="I105" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="2">
+        <v>100023</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E106" s="14">
+        <v>2</v>
+      </c>
+      <c r="F106" s="14">
+        <v>1</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H106" s="14">
+        <v>23</v>
+      </c>
+      <c r="I106" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="2">
+        <v>100024</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E107" s="14">
+        <v>2</v>
+      </c>
+      <c r="F107" s="14">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H107" s="2">
+        <v>9</v>
+      </c>
+      <c r="I107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="2">
+        <v>100025</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E108" s="10">
+        <v>2</v>
+      </c>
+      <c r="F108" s="10">
+        <v>1</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H108" s="10">
+        <v>10</v>
+      </c>
+      <c r="I108" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="2">
+        <v>100026</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E109" s="10">
+        <v>2</v>
+      </c>
+      <c r="F109" s="10">
+        <v>1</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H109" s="10">
+        <v>11</v>
+      </c>
+      <c r="I109" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="2">
+        <v>100027</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" s="10">
+        <v>2</v>
+      </c>
+      <c r="F110" s="10">
+        <v>1</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H110" s="10">
+        <v>12</v>
+      </c>
+      <c r="I110" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="2">
+        <v>100028</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E111" s="10">
+        <v>2</v>
+      </c>
+      <c r="F111" s="10">
+        <v>1</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H111" s="10">
+        <v>13</v>
+      </c>
+      <c r="I111" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="2">
+        <v>100029</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E112" s="10">
+        <v>2</v>
+      </c>
+      <c r="F112" s="10">
+        <v>1</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H112" s="10">
+        <v>14</v>
+      </c>
+      <c r="I112" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="2">
+        <v>100030</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E113" s="10">
+        <v>2</v>
+      </c>
+      <c r="F113" s="10">
+        <v>1</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H113" s="10">
+        <v>17</v>
+      </c>
+      <c r="I113" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="2">
+        <v>100031</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E114" s="10">
+        <v>2</v>
+      </c>
+      <c r="F114" s="10">
+        <v>1</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H114" s="10">
+        <v>18</v>
+      </c>
+      <c r="I114" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="2">
+        <v>100032</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E115" s="10">
+        <v>2</v>
+      </c>
+      <c r="F115" s="10">
+        <v>1</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H115" s="10">
+        <v>19</v>
+      </c>
+      <c r="I115" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="2">
+        <v>100033</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E116" s="10">
+        <v>2</v>
+      </c>
+      <c r="F116" s="10">
+        <v>1</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H116" s="10">
+        <v>20</v>
+      </c>
+      <c r="I116" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="2">
+        <v>100034</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E117" s="10">
+        <v>2</v>
+      </c>
+      <c r="F117" s="10">
+        <v>1</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H117" s="10">
+        <v>21</v>
+      </c>
+      <c r="I117" s="10">
         <v>5</v>
       </c>
     </row>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17600" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,11 @@
 22.挑战无尽关卡的次数
 23.无尽关卡的boss击杀次数
 24.升级防御塔的次数
-25.日常解锁一次塔（只支持日常）</t>
+25.日常解锁一次塔（只支持日常）
+26.累计天赋解锁
+1047.终极天赋物理
+1048.终极天赋魔法
+1049.终极天赋耐久</t>
     </r>
   </si>
   <si>
@@ -883,7 +887,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -891,21 +895,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -913,7 +917,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -921,7 +925,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -929,7 +933,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -937,7 +941,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -945,14 +949,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -960,7 +964,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -968,7 +972,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -976,14 +980,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -991,42 +995,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1555,55 +1559,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1941,27 +1945,27 @@
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="27.4" style="2" customWidth="1"/>
-    <col min="3" max="5" width="26.1181818181818" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.6090909090909" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.3818181818182" style="3" customWidth="1"/>
-    <col min="8" max="9" width="25.2545454545455" style="2" customWidth="1"/>
+    <col min="3" max="5" width="26.1166666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.6083333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.3833333333333" style="3" customWidth="1"/>
+    <col min="8" max="9" width="25.2583333333333" style="2" customWidth="1"/>
     <col min="10" max="978" width="9" style="2"/>
-    <col min="979" max="985" width="11.6181818181818" style="2" customWidth="1"/>
+    <col min="979" max="985" width="11.6166666666667" style="2" customWidth="1"/>
     <col min="986" max="986" width="9" style="2"/>
-    <col min="987" max="997" width="11.6181818181818" style="2" customWidth="1"/>
+    <col min="987" max="997" width="11.6166666666667" style="2" customWidth="1"/>
     <col min="998" max="1024" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.5" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1995,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.5" spans="1:10">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -2051,7 +2055,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.5" spans="1:9">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F3A6F9-AC2E-4EC8-AEB1-4F9F2F9E648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B4D6A0-6B71-46CE-953B-BBB7C01BBD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1407,8 +1407,8 @@
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2124,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="6">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2151,7 +2151,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2232,7 +2232,7 @@
         <v>6</v>
       </c>
       <c r="I30" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2259,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="I31" s="6">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2286,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="6">
-        <v>50</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2313,7 +2313,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="6">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2340,7 +2340,7 @@
         <v>9</v>
       </c>
       <c r="I34" s="6">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2367,7 +2367,7 @@
         <v>9</v>
       </c>
       <c r="I35" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2394,7 +2394,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="6">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2421,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2448,7 +2448,7 @@
         <v>11</v>
       </c>
       <c r="I38" s="6">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2475,7 +2475,7 @@
         <v>11</v>
       </c>
       <c r="I39" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2502,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="I40" s="6">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2529,7 +2529,7 @@
         <v>12</v>
       </c>
       <c r="I41" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2556,7 +2556,7 @@
         <v>13</v>
       </c>
       <c r="I42" s="6">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2583,7 +2583,7 @@
         <v>13</v>
       </c>
       <c r="I43" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2610,7 +2610,7 @@
         <v>14</v>
       </c>
       <c r="I44" s="6">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2637,7 +2637,7 @@
         <v>14</v>
       </c>
       <c r="I45" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -2853,7 +2853,7 @@
         <v>17</v>
       </c>
       <c r="I53" s="6">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -2880,7 +2880,7 @@
         <v>17</v>
       </c>
       <c r="I54" s="9">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -2907,7 +2907,7 @@
         <v>18</v>
       </c>
       <c r="I55" s="9">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -2934,7 +2934,7 @@
         <v>19</v>
       </c>
       <c r="I56" s="6">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -2961,7 +2961,7 @@
         <v>21</v>
       </c>
       <c r="I57" s="6">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -2988,7 +2988,7 @@
         <v>20</v>
       </c>
       <c r="I58" s="6">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -3162,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="I64" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -3191,7 +3191,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -3220,7 +3220,7 @@
         <v>11</v>
       </c>
       <c r="I66" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -3249,7 +3249,7 @@
         <v>12</v>
       </c>
       <c r="I67" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -3278,7 +3278,7 @@
         <v>13</v>
       </c>
       <c r="I68" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -3307,7 +3307,7 @@
         <v>14</v>
       </c>
       <c r="I69" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -3336,7 +3336,7 @@
         <v>17</v>
       </c>
       <c r="I70" s="6">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -3365,7 +3365,7 @@
         <v>18</v>
       </c>
       <c r="I71" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -3394,7 +3394,7 @@
         <v>19</v>
       </c>
       <c r="I72" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
@@ -3423,7 +3423,7 @@
         <v>21</v>
       </c>
       <c r="I73" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
@@ -3452,7 +3452,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B4D6A0-6B71-46CE-953B-BBB7C01BBD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE302B21-75D1-40A1-950D-C47668970788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="278">
   <si>
     <t>int</t>
   </si>
@@ -271,9 +271,6 @@
     <t>通关世界1·困难</t>
   </si>
   <si>
-    <t>1|20||2|15||3|10</t>
-  </si>
-  <si>
     <t>Task_taskName_2</t>
   </si>
   <si>
@@ -922,16 +919,112 @@
     <t>今日解锁一个塔</t>
   </si>
   <si>
-    <t>1|50||2|40||3|15</t>
-  </si>
-  <si>
-    <t>1|50||2|30||3|10</t>
-  </si>
-  <si>
     <t>3|20</t>
   </si>
   <si>
-    <t>2|30||3|10</t>
+    <t>1|300||2|100||3|10</t>
+  </si>
+  <si>
+    <t>1|500||2|100||3|10</t>
+  </si>
+  <si>
+    <t>1|600||2|150||3|10</t>
+  </si>
+  <si>
+    <t>1|1000||2|200||3|10</t>
+  </si>
+  <si>
+    <t>1|2500||2|600||3|10</t>
+  </si>
+  <si>
+    <t>1|600||2|100||3|15</t>
+  </si>
+  <si>
+    <t>1|700||2|150||3|15</t>
+  </si>
+  <si>
+    <t>1|1000||2|200||3|15</t>
+  </si>
+  <si>
+    <t>1|1500||2|250||3|15</t>
+  </si>
+  <si>
+    <t>1|3500||2|900||3|15</t>
+  </si>
+  <si>
+    <t>1|100||2|100||3|10</t>
+  </si>
+  <si>
+    <t>1|300||2|200||3|10</t>
+  </si>
+  <si>
+    <t>1|300||2|300||3|10</t>
+  </si>
+  <si>
+    <t>1|2000||2|600||3|10</t>
+  </si>
+  <si>
+    <t>1|400||2|200||3|50</t>
+  </si>
+  <si>
+    <t>1|800||2|400||3|100</t>
+  </si>
+  <si>
+    <t>1|300||2|200||3|20</t>
+  </si>
+  <si>
+    <t>1|600||2|400||3|50</t>
+  </si>
+  <si>
+    <t>1|400||2|100||3|50</t>
+  </si>
+  <si>
+    <t>1|800||2|200||3|50</t>
+  </si>
+  <si>
+    <t>1|1000||2|300||3|50</t>
+  </si>
+  <si>
+    <t>1|2500||2|400||3|50</t>
+  </si>
+  <si>
+    <t>1|400||2|200||3|20</t>
+  </si>
+  <si>
+    <t>1|800||2|400||3|20</t>
+  </si>
+  <si>
+    <t>1|800||2|400</t>
+  </si>
+  <si>
+    <t>1|1000||2|600</t>
+  </si>
+  <si>
+    <t>1|1500||2|800</t>
+  </si>
+  <si>
+    <t>1|400||2|200</t>
+  </si>
+  <si>
+    <t>1|400||2|100||3|20</t>
+  </si>
+  <si>
+    <t>1|200||2|120||3|10</t>
+  </si>
+  <si>
+    <t>1|500||2|500||3|10</t>
+  </si>
+  <si>
+    <t>1|300||2|70||3|10</t>
+  </si>
+  <si>
+    <t>1|100||2|70||3|10</t>
+  </si>
+  <si>
+    <t>1|200||2|70||3|10</t>
+  </si>
+  <si>
+    <t>2|70||3|10</t>
   </si>
 </sst>
 </file>
@@ -1407,8 +1500,8 @@
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1551,7 +1644,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="8" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
@@ -1565,20 +1658,20 @@
         <v>100002</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="8" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
@@ -1592,20 +1685,20 @@
         <v>100003</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="H7" s="6">
         <v>1</v>
@@ -1619,20 +1712,20 @@
         <v>100004</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="8" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
@@ -1646,20 +1739,20 @@
         <v>100005</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="8" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
@@ -1673,20 +1766,20 @@
         <v>100006</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H10" s="6">
         <v>7</v>
@@ -1700,20 +1793,20 @@
         <v>100007</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H11" s="6">
         <v>7</v>
@@ -1727,20 +1820,20 @@
         <v>100008</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="8" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H12" s="6">
         <v>7</v>
@@ -1754,20 +1847,20 @@
         <v>100009</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="8" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H13" s="6">
         <v>7</v>
@@ -1781,20 +1874,20 @@
         <v>100010</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="8" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H14" s="6">
         <v>7</v>
@@ -1808,20 +1901,20 @@
         <v>100011</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="8" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="H15" s="6">
         <v>2</v>
@@ -1835,20 +1928,20 @@
         <v>100012</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="8" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="H16" s="6">
         <v>2</v>
@@ -1862,20 +1955,20 @@
         <v>100013</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="8" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="H17" s="6">
         <v>2</v>
@@ -1889,20 +1982,20 @@
         <v>100014</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="8" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="H18" s="6">
         <v>2</v>
@@ -1916,20 +2009,20 @@
         <v>100015</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="8" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="H19" s="6">
         <v>1047</v>
@@ -1943,20 +2036,20 @@
         <v>100016</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="8" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="H20" s="6">
         <v>1048</v>
@@ -1970,20 +2063,20 @@
         <v>100017</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="8" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="H21" s="6">
         <v>1049</v>
@@ -1997,20 +2090,20 @@
         <v>100018</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="8" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="H22" s="6">
         <v>26</v>
@@ -2024,20 +2117,20 @@
         <v>100019</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="8" t="s">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="H23" s="6">
         <v>26</v>
@@ -2051,20 +2144,20 @@
         <v>100020</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="8" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="H24" s="6">
         <v>26</v>
@@ -2078,20 +2171,20 @@
         <v>100021</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="8" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H25" s="6">
         <v>3</v>
@@ -2105,20 +2198,20 @@
         <v>100022</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="8" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="H26" s="6">
         <v>5</v>
@@ -2132,26 +2225,26 @@
         <v>100023</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="8" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="H27" s="6">
         <v>5</v>
       </c>
       <c r="I27" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2159,20 +2252,20 @@
         <v>100024</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="8" t="s">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="H28" s="6">
         <v>8</v>
@@ -2186,20 +2279,20 @@
         <v>100025</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="8" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="H29" s="6">
         <v>8</v>
@@ -2213,26 +2306,26 @@
         <v>100026</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="8" t="s">
-        <v>26</v>
+        <v>261</v>
       </c>
       <c r="H30" s="6">
         <v>6</v>
       </c>
       <c r="I30" s="6">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2240,26 +2333,26 @@
         <v>100027</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="8" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="H31" s="6">
         <v>6</v>
       </c>
       <c r="I31" s="6">
-        <v>2000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2267,26 +2360,26 @@
         <v>100028</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="8" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="H32" s="6">
         <v>6</v>
       </c>
       <c r="I32" s="6">
-        <v>5000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2294,26 +2387,26 @@
         <v>100029</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="8" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="H33" s="6">
         <v>6</v>
       </c>
       <c r="I33" s="6">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2321,26 +2414,26 @@
         <v>100030</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="8" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="H34" s="6">
         <v>9</v>
       </c>
       <c r="I34" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2348,26 +2441,26 @@
         <v>100031</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="8" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="H35" s="6">
         <v>9</v>
       </c>
       <c r="I35" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2375,26 +2468,26 @@
         <v>100032</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="8" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="H36" s="6">
         <v>10</v>
       </c>
       <c r="I36" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2402,26 +2495,26 @@
         <v>100033</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="8" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="H37" s="6">
         <v>10</v>
       </c>
       <c r="I37" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2429,26 +2522,26 @@
         <v>100034</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="8" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="H38" s="6">
         <v>11</v>
       </c>
       <c r="I38" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2456,26 +2549,26 @@
         <v>100035</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="8" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="H39" s="6">
         <v>11</v>
       </c>
       <c r="I39" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2483,26 +2576,26 @@
         <v>100036</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="8" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="H40" s="6">
         <v>12</v>
       </c>
       <c r="I40" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2510,26 +2603,26 @@
         <v>100037</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="8" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="H41" s="6">
         <v>12</v>
       </c>
       <c r="I41" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2537,26 +2630,26 @@
         <v>100038</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="8" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="H42" s="6">
         <v>13</v>
       </c>
       <c r="I42" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2564,26 +2657,26 @@
         <v>100039</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="8" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="H43" s="6">
         <v>13</v>
       </c>
       <c r="I43" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2591,26 +2684,26 @@
         <v>100040</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="8" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="H44" s="6">
         <v>14</v>
       </c>
       <c r="I44" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2618,26 +2711,26 @@
         <v>100041</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="8" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="H45" s="6">
         <v>14</v>
       </c>
       <c r="I45" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -2645,20 +2738,20 @@
         <v>100042</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="8" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="H46" s="6">
         <v>15</v>
@@ -2672,20 +2765,20 @@
         <v>100043</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="8" t="s">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="H47" s="6">
         <v>15</v>
@@ -2699,20 +2792,20 @@
         <v>100044</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="8" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="H48" s="6">
         <v>15</v>
@@ -2726,20 +2819,20 @@
         <v>100045</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="8" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="H49" s="6">
         <v>16</v>
@@ -2753,26 +2846,26 @@
         <v>100046</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="8" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="H50" s="6">
         <v>16</v>
       </c>
       <c r="I50" s="6">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2780,26 +2873,26 @@
         <v>100047</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="8" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="H51" s="6">
         <v>16</v>
       </c>
       <c r="I51" s="6">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -2807,26 +2900,26 @@
         <v>100048</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="8" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="H52" s="6">
         <v>16</v>
       </c>
       <c r="I52" s="6">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -2834,20 +2927,20 @@
         <v>100049</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="8" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="H53" s="6">
         <v>17</v>
@@ -2861,20 +2954,20 @@
         <v>100050</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="8" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="H54" s="6">
         <v>17</v>
@@ -2888,20 +2981,20 @@
         <v>100051</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="D55" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="8" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="H55" s="9">
         <v>18</v>
@@ -2915,20 +3008,20 @@
         <v>100052</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="8" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="H56" s="6">
         <v>19</v>
@@ -2942,20 +3035,20 @@
         <v>100053</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="8" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="H57" s="6">
         <v>21</v>
@@ -2969,20 +3062,20 @@
         <v>100054</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="8" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="H58" s="6">
         <v>20</v>
@@ -2996,13 +3089,13 @@
         <v>100055</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
@@ -3011,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="H59" s="6">
         <v>5</v>
@@ -3025,13 +3118,13 @@
         <v>100056</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="E60" s="6">
         <v>2</v>
@@ -3040,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="H60" s="6">
         <v>8</v>
@@ -3054,13 +3147,13 @@
         <v>100057</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="E61" s="6">
         <v>2</v>
@@ -3069,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="H61" s="6">
         <v>22</v>
@@ -3083,13 +3176,13 @@
         <v>100058</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
@@ -3098,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
@@ -3112,13 +3205,13 @@
         <v>100059</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="E63" s="6">
         <v>2</v>
@@ -3127,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="H63" s="6">
         <v>23</v>
@@ -3141,13 +3234,13 @@
         <v>100060</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -3156,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H64" s="6">
         <v>9</v>
@@ -3170,13 +3263,13 @@
         <v>100061</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="E65" s="6">
         <v>2</v>
@@ -3185,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H65" s="6">
         <v>10</v>
@@ -3199,13 +3292,13 @@
         <v>100062</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="E66" s="6">
         <v>2</v>
@@ -3214,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H66" s="6">
         <v>11</v>
@@ -3228,13 +3321,13 @@
         <v>100063</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="E67" s="6">
         <v>2</v>
@@ -3243,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H67" s="6">
         <v>12</v>
@@ -3257,13 +3350,13 @@
         <v>100064</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="E68" s="6">
         <v>2</v>
@@ -3272,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H68" s="6">
         <v>13</v>
@@ -3286,13 +3379,13 @@
         <v>100065</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="E69" s="6">
         <v>2</v>
@@ -3301,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H69" s="6">
         <v>14</v>
@@ -3315,13 +3408,13 @@
         <v>100066</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="E70" s="6">
         <v>2</v>
@@ -3330,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H70" s="6">
         <v>17</v>
@@ -3344,13 +3437,13 @@
         <v>100067</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="E71" s="6">
         <v>2</v>
@@ -3359,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H71" s="6">
         <v>18</v>
@@ -3373,13 +3466,13 @@
         <v>100068</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="E72" s="6">
         <v>2</v>
@@ -3388,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H72" s="6">
         <v>19</v>
@@ -3402,13 +3495,13 @@
         <v>100069</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="E73" s="6">
         <v>2</v>
@@ -3417,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H73" s="6">
         <v>21</v>
@@ -3431,13 +3524,13 @@
         <v>100070</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="E74" s="6">
         <v>2</v>
@@ -3446,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H74" s="6">
         <v>20</v>
@@ -3460,13 +3553,13 @@
         <v>100071</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="E75" s="6">
         <v>2</v>
@@ -3475,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="H75" s="6">
         <v>15</v>
@@ -3489,13 +3582,13 @@
         <v>100072</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="E76" s="6">
         <v>2</v>
@@ -3504,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H76" s="6">
         <v>2</v>
@@ -3518,13 +3611,13 @@
         <v>100073</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="E77" s="6">
         <v>2</v>
@@ -3533,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="H77" s="6">
         <v>25</v>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE302B21-75D1-40A1-950D-C47668970788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF85AD56-2D3A-46A0-945F-BB6BF9A22A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="281">
   <si>
     <t>int</t>
   </si>
@@ -955,12 +955,6 @@
     <t>1|100||2|100||3|10</t>
   </si>
   <si>
-    <t>1|300||2|200||3|10</t>
-  </si>
-  <si>
-    <t>1|300||2|300||3|10</t>
-  </si>
-  <si>
     <t>1|2000||2|600||3|10</t>
   </si>
   <si>
@@ -1025,6 +1019,21 @@
   </si>
   <si>
     <t>2|70||3|10</t>
+  </si>
+  <si>
+    <t>1|400||2|200||3|10</t>
+  </si>
+  <si>
+    <t>1|500||2|300||3|10</t>
+  </si>
+  <si>
+    <t>1|600||2|300</t>
+  </si>
+  <si>
+    <t>1|1000||2|500</t>
+  </si>
+  <si>
+    <t>1|1200||2|600||3|60</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1509,8 @@
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2130,7 +2139,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="8" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="H23" s="6">
         <v>26</v>
@@ -2157,13 +2166,13 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="8" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="H24" s="6">
         <v>26</v>
       </c>
       <c r="I24" s="6">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -2184,7 +2193,7 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H25" s="6">
         <v>3</v>
@@ -2211,7 +2220,7 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H26" s="6">
         <v>5</v>
@@ -2238,7 +2247,7 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H27" s="6">
         <v>5</v>
@@ -2265,7 +2274,7 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H28" s="6">
         <v>8</v>
@@ -2292,7 +2301,7 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H29" s="6">
         <v>8</v>
@@ -2319,7 +2328,7 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H30" s="6">
         <v>6</v>
@@ -2346,7 +2355,7 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H31" s="6">
         <v>6</v>
@@ -2373,7 +2382,7 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H32" s="6">
         <v>6</v>
@@ -2400,7 +2409,7 @@
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H33" s="6">
         <v>6</v>
@@ -2427,7 +2436,7 @@
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H34" s="6">
         <v>9</v>
@@ -2454,7 +2463,7 @@
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H35" s="6">
         <v>9</v>
@@ -2481,7 +2490,7 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H36" s="6">
         <v>10</v>
@@ -2508,7 +2517,7 @@
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H37" s="6">
         <v>10</v>
@@ -2535,7 +2544,7 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H38" s="6">
         <v>11</v>
@@ -2562,7 +2571,7 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H39" s="6">
         <v>11</v>
@@ -2589,7 +2598,7 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H40" s="6">
         <v>12</v>
@@ -2616,7 +2625,7 @@
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H41" s="6">
         <v>12</v>
@@ -2643,7 +2652,7 @@
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H42" s="6">
         <v>13</v>
@@ -2670,7 +2679,7 @@
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H43" s="6">
         <v>13</v>
@@ -2697,7 +2706,7 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H44" s="6">
         <v>14</v>
@@ -2724,7 +2733,7 @@
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H45" s="6">
         <v>14</v>
@@ -2751,13 +2760,13 @@
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H46" s="6">
         <v>15</v>
       </c>
       <c r="I46" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2778,13 +2787,13 @@
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H47" s="6">
         <v>15</v>
       </c>
       <c r="I47" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2805,13 +2814,13 @@
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H48" s="6">
         <v>15</v>
       </c>
       <c r="I48" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2832,7 +2841,7 @@
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H49" s="6">
         <v>16</v>
@@ -2859,7 +2868,7 @@
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="8" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H50" s="6">
         <v>16</v>
@@ -2886,7 +2895,7 @@
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H51" s="6">
         <v>16</v>
@@ -2913,13 +2922,13 @@
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="8" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H52" s="6">
         <v>16</v>
       </c>
       <c r="I52" s="6">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -2940,7 +2949,7 @@
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H53" s="6">
         <v>17</v>
@@ -2967,13 +2976,13 @@
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="8" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="H54" s="6">
         <v>17</v>
       </c>
       <c r="I54" s="9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -2994,13 +3003,13 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H55" s="9">
         <v>18</v>
       </c>
       <c r="I55" s="9">
-        <v>2000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -3021,13 +3030,13 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H56" s="6">
         <v>19</v>
       </c>
       <c r="I56" s="6">
-        <v>2000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -3048,7 +3057,7 @@
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H57" s="6">
         <v>21</v>
@@ -3075,7 +3084,7 @@
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H58" s="6">
         <v>20</v>
@@ -3104,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H59" s="6">
         <v>5</v>
@@ -3133,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H60" s="6">
         <v>8</v>
@@ -3162,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H61" s="6">
         <v>22</v>
@@ -3191,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
@@ -3220,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H63" s="6">
         <v>23</v>
@@ -3249,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H64" s="6">
         <v>9</v>
@@ -3278,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H65" s="6">
         <v>10</v>
@@ -3307,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H66" s="6">
         <v>11</v>
@@ -3336,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H67" s="6">
         <v>12</v>
@@ -3365,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H68" s="6">
         <v>13</v>
@@ -3394,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H69" s="6">
         <v>14</v>
@@ -3423,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H70" s="6">
         <v>17</v>
@@ -3452,13 +3461,13 @@
         <v>1</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H71" s="6">
         <v>18</v>
       </c>
       <c r="I71" s="6">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -3481,13 +3490,13 @@
         <v>1</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H72" s="6">
         <v>19</v>
       </c>
       <c r="I72" s="6">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
@@ -3510,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H73" s="6">
         <v>21</v>
@@ -3539,13 +3548,13 @@
         <v>1</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H74" s="6">
         <v>20</v>
       </c>
       <c r="I74" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
@@ -3568,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H75" s="6">
         <v>15</v>
@@ -3626,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H77" s="6">
         <v>25</v>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF85AD56-2D3A-46A0-945F-BB6BF9A22A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -95,12 +91,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">任务类型
 </t>
     </r>
@@ -108,7 +98,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1.</t>
     </r>
@@ -116,7 +106,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>通过某关卡</t>
@@ -125,7 +114,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>id
 2.</t>
@@ -134,7 +123,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>解锁科技树某</t>
@@ -143,7 +131,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>id</t>
     </r>
@@ -151,7 +139,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">科技
@@ -161,7 +148,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3.</t>
     </r>
@@ -169,7 +156,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">解锁多少个塔
@@ -179,7 +165,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -187,7 +173,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">副本获得多少星星
@@ -197,7 +182,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5.</t>
     </r>
@@ -205,7 +190,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">游玩几局游戏
@@ -215,7 +199,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>6.</t>
     </r>
@@ -223,7 +207,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>击败多少只怪物
@@ -247,6 +230,7 @@
 24.升级防御塔的次数
 25.日常解锁一次塔（只支持日常）
 26.累计天赋解锁
+27.人物升级的等级数
 1047.终极天赋物理
 1048.终极天赋魔法
 1049.终极天赋耐久</t>
@@ -271,6 +255,9 @@
     <t>通关世界1·困难</t>
   </si>
   <si>
+    <t>1|300||2|100||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_2</t>
   </si>
   <si>
@@ -280,6 +267,9 @@
     <t>通关世界2·困难</t>
   </si>
   <si>
+    <t>1|500||2|100||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_3</t>
   </si>
   <si>
@@ -289,6 +279,9 @@
     <t>通关世界3·困难</t>
   </si>
   <si>
+    <t>1|600||2|150||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_4</t>
   </si>
   <si>
@@ -298,6 +291,9 @@
     <t>通关世界4·困难</t>
   </si>
   <si>
+    <t>1|1000||2|200||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_5</t>
   </si>
   <si>
@@ -307,6 +303,9 @@
     <t>通关世界5·困难</t>
   </si>
   <si>
+    <t>1|2500||2|600||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_6</t>
   </si>
   <si>
@@ -316,6 +315,9 @@
     <t>完美通关世界1·困难</t>
   </si>
   <si>
+    <t>1|600||2|100||3|15</t>
+  </si>
+  <si>
     <t>Task_taskName_7</t>
   </si>
   <si>
@@ -325,6 +327,9 @@
     <t>完美通关世界2·困难</t>
   </si>
   <si>
+    <t>1|700||2|150||3|15</t>
+  </si>
+  <si>
     <t>Task_taskName_8</t>
   </si>
   <si>
@@ -334,6 +339,9 @@
     <t>完美通关世界3·困难</t>
   </si>
   <si>
+    <t>1|1000||2|200||3|15</t>
+  </si>
+  <si>
     <t>Task_taskName_9</t>
   </si>
   <si>
@@ -343,6 +351,9 @@
     <t>完美通关世界4·困难</t>
   </si>
   <si>
+    <t>1|1500||2|250||3|15</t>
+  </si>
+  <si>
     <t>Task_taskName_10</t>
   </si>
   <si>
@@ -352,6 +363,9 @@
     <t>完美通关世界5·困难</t>
   </si>
   <si>
+    <t>1|3500||2|900||3|15</t>
+  </si>
+  <si>
     <t>Task_taskName_11</t>
   </si>
   <si>
@@ -361,6 +375,9 @@
     <t>解锁天赋·慧光</t>
   </si>
   <si>
+    <t>1|100||2|100||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_12</t>
   </si>
   <si>
@@ -433,6 +450,9 @@
     <t>累计解锁天赋120点</t>
   </si>
   <si>
+    <t>1|400||2|200||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_20</t>
   </si>
   <si>
@@ -442,6 +462,9 @@
     <t>累计解锁天赋150点</t>
   </si>
   <si>
+    <t>1|500||2|300||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_21</t>
   </si>
   <si>
@@ -451,6 +474,9 @@
     <t>解锁塔38个</t>
   </si>
   <si>
+    <t>1|2000||2|600||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_22</t>
   </si>
   <si>
@@ -460,6 +486,9 @@
     <t>累计游戏100次</t>
   </si>
   <si>
+    <t>1|400||2|200||3|50</t>
+  </si>
+  <si>
     <t>Task_taskName_23</t>
   </si>
   <si>
@@ -469,6 +498,9 @@
     <t>累计游戏200次</t>
   </si>
   <si>
+    <t>1|800||2|400||3|100</t>
+  </si>
+  <si>
     <t>Task_taskName_24</t>
   </si>
   <si>
@@ -478,6 +510,9 @@
     <t>累计完美通关20次</t>
   </si>
   <si>
+    <t>1|300||2|200||3|20</t>
+  </si>
+  <si>
     <t>Task_taskName_25</t>
   </si>
   <si>
@@ -487,6 +522,9 @@
     <t>累计完美通关50次</t>
   </si>
   <si>
+    <t>1|600||2|400||3|50</t>
+  </si>
+  <si>
     <t>Task_taskName_26</t>
   </si>
   <si>
@@ -496,6 +534,9 @@
     <t>累计击败怪物1000个</t>
   </si>
   <si>
+    <t>1|400||2|100||3|50</t>
+  </si>
+  <si>
     <t>Task_taskName_27</t>
   </si>
   <si>
@@ -505,6 +546,9 @@
     <t>累计击败怪物2000个</t>
   </si>
   <si>
+    <t>1|800||2|200||3|50</t>
+  </si>
+  <si>
     <t>Task_taskName_28</t>
   </si>
   <si>
@@ -514,6 +558,9 @@
     <t>累计击败怪物5000个</t>
   </si>
   <si>
+    <t>1|1000||2|300||3|50</t>
+  </si>
+  <si>
     <t>Task_taskName_29</t>
   </si>
   <si>
@@ -523,6 +570,9 @@
     <t>累计击败怪物10000个</t>
   </si>
   <si>
+    <t>1|2500||2|400||3|50</t>
+  </si>
+  <si>
     <t>Task_taskName_30</t>
   </si>
   <si>
@@ -532,6 +582,9 @@
     <t>累计部署光元素塔500次</t>
   </si>
   <si>
+    <t>1|400||2|200||3|20</t>
+  </si>
+  <si>
     <t>Task_taskName_31</t>
   </si>
   <si>
@@ -541,6 +594,9 @@
     <t>累计部署光元素塔1000次</t>
   </si>
   <si>
+    <t>1|800||2|400||3|20</t>
+  </si>
+  <si>
     <t>Task_taskName_32</t>
   </si>
   <si>
@@ -640,6 +696,9 @@
     <t>角色等级到达18级</t>
   </si>
   <si>
+    <t>1|800||2|400</t>
+  </si>
+  <si>
     <t>Task_taskName_43</t>
   </si>
   <si>
@@ -649,6 +708,9 @@
     <t>角色等级到达30级</t>
   </si>
   <si>
+    <t>1|1000||2|600</t>
+  </si>
+  <si>
     <t>Task_taskName_44</t>
   </si>
   <si>
@@ -658,6 +720,9 @@
     <t>角色等级到达50级</t>
   </si>
   <si>
+    <t>1|1500||2|800</t>
+  </si>
+  <si>
     <t>Task_taskName_45</t>
   </si>
   <si>
@@ -667,6 +732,9 @@
     <t>无尽关卡成功抵御10波</t>
   </si>
   <si>
+    <t>1|400||2|200</t>
+  </si>
+  <si>
     <t>Task_taskName_46</t>
   </si>
   <si>
@@ -676,6 +744,9 @@
     <t>无尽关卡成功抵御30波</t>
   </si>
   <si>
+    <t>1|600||2|300</t>
+  </si>
+  <si>
     <t>Task_taskName_47</t>
   </si>
   <si>
@@ -694,6 +765,9 @@
     <t>无尽关卡成功抵御100波</t>
   </si>
   <si>
+    <t>1|1000||2|500</t>
+  </si>
+  <si>
     <t>Task_taskName_49</t>
   </si>
   <si>
@@ -712,6 +786,9 @@
     <t>累计强化3级塔1000次</t>
   </si>
   <si>
+    <t>1|1200||2|600||3|60</t>
+  </si>
+  <si>
     <t>Task_taskName_51</t>
   </si>
   <si>
@@ -721,6 +798,9 @@
     <t>累计击败复原力怪物2000只</t>
   </si>
   <si>
+    <t>1|400||2|100||3|20</t>
+  </si>
+  <si>
     <t>Task_taskName_52</t>
   </si>
   <si>
@@ -757,6 +837,9 @@
     <t>今日游戏10次</t>
   </si>
   <si>
+    <t>1|200||2|120||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_56</t>
   </si>
   <si>
@@ -766,6 +849,9 @@
     <t>今日完美通关10次</t>
   </si>
   <si>
+    <t>1|500||2|500||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_57</t>
   </si>
   <si>
@@ -775,6 +861,9 @@
     <t>今日挑战无尽关卡3次</t>
   </si>
   <si>
+    <t>1|300||2|70||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_58</t>
   </si>
   <si>
@@ -802,6 +891,9 @@
     <t>今日部署光元素塔200次</t>
   </si>
   <si>
+    <t>1|100||2|70||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_61</t>
   </si>
   <si>
@@ -901,6 +993,9 @@
     <t>今日角色完成一次升级</t>
   </si>
   <si>
+    <t>1|200||2|70||3|10</t>
+  </si>
+  <si>
     <t>Task_taskName_72</t>
   </si>
   <si>
@@ -910,6 +1005,9 @@
     <t>今日解锁一点天赋</t>
   </si>
   <si>
+    <t>3|20</t>
+  </si>
+  <si>
     <t>Task_taskName_73</t>
   </si>
   <si>
@@ -919,128 +1017,20 @@
     <t>今日解锁一个塔</t>
   </si>
   <si>
-    <t>3|20</t>
-  </si>
-  <si>
-    <t>1|300||2|100||3|10</t>
-  </si>
-  <si>
-    <t>1|500||2|100||3|10</t>
-  </si>
-  <si>
-    <t>1|600||2|150||3|10</t>
-  </si>
-  <si>
-    <t>1|1000||2|200||3|10</t>
-  </si>
-  <si>
-    <t>1|2500||2|600||3|10</t>
-  </si>
-  <si>
-    <t>1|600||2|100||3|15</t>
-  </si>
-  <si>
-    <t>1|700||2|150||3|15</t>
-  </si>
-  <si>
-    <t>1|1000||2|200||3|15</t>
-  </si>
-  <si>
-    <t>1|1500||2|250||3|15</t>
-  </si>
-  <si>
-    <t>1|3500||2|900||3|15</t>
-  </si>
-  <si>
-    <t>1|100||2|100||3|10</t>
-  </si>
-  <si>
-    <t>1|2000||2|600||3|10</t>
-  </si>
-  <si>
-    <t>1|400||2|200||3|50</t>
-  </si>
-  <si>
-    <t>1|800||2|400||3|100</t>
-  </si>
-  <si>
-    <t>1|300||2|200||3|20</t>
-  </si>
-  <si>
-    <t>1|600||2|400||3|50</t>
-  </si>
-  <si>
-    <t>1|400||2|100||3|50</t>
-  </si>
-  <si>
-    <t>1|800||2|200||3|50</t>
-  </si>
-  <si>
-    <t>1|1000||2|300||3|50</t>
-  </si>
-  <si>
-    <t>1|2500||2|400||3|50</t>
-  </si>
-  <si>
-    <t>1|400||2|200||3|20</t>
-  </si>
-  <si>
-    <t>1|800||2|400||3|20</t>
-  </si>
-  <si>
-    <t>1|800||2|400</t>
-  </si>
-  <si>
-    <t>1|1000||2|600</t>
-  </si>
-  <si>
-    <t>1|1500||2|800</t>
-  </si>
-  <si>
-    <t>1|400||2|200</t>
-  </si>
-  <si>
-    <t>1|400||2|100||3|20</t>
-  </si>
-  <si>
-    <t>1|200||2|120||3|10</t>
-  </si>
-  <si>
-    <t>1|500||2|500||3|10</t>
-  </si>
-  <si>
-    <t>1|300||2|70||3|10</t>
-  </si>
-  <si>
-    <t>1|100||2|70||3|10</t>
-  </si>
-  <si>
-    <t>1|200||2|70||3|10</t>
-  </si>
-  <si>
     <t>2|70||3|10</t>
-  </si>
-  <si>
-    <t>1|400||2|200||3|10</t>
-  </si>
-  <si>
-    <t>1|500||2|300||3|10</t>
-  </si>
-  <si>
-    <t>1|600||2|300</t>
-  </si>
-  <si>
-    <t>1|1000||2|500</t>
-  </si>
-  <si>
-    <t>1|1200||2|600||3|60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1051,13 +1041,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1065,28 +1053,172 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,12 +1233,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1129,13 +1441,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,162 +1717,90 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1329,7 +1811,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1357,40 +1839,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1449,7 +2045,7 @@
         <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1500,35 +2096,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="27.375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="26.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="9" width="25.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.3727272727273" style="2" customWidth="1"/>
+    <col min="3" max="5" width="26.1272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.6272727272727" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.1272727272727" customWidth="1"/>
+    <col min="8" max="9" width="25.2545454545455" style="2" customWidth="1"/>
     <col min="10" max="978" width="9" style="2"/>
-    <col min="979" max="985" width="11.625" style="2" customWidth="1"/>
+    <col min="979" max="985" width="11.6272727272727" style="2" customWidth="1"/>
     <col min="986" max="986" width="9" style="2"/>
-    <col min="987" max="997" width="11.625" style="2" customWidth="1"/>
+    <col min="987" max="997" width="11.6272727272727" style="2" customWidth="1"/>
     <col min="998" max="1024" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="14.5" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +2155,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="14.5" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +2185,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="408" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1618,7 +2215,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" ht="14.5" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1635,7 +2232,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="6">
         <v>100001</v>
       </c>
@@ -1653,7 +2250,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="8" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
@@ -1662,25 +2259,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="6">
         <v>100002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="8" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
@@ -1689,25 +2286,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="6">
         <v>100003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="H7" s="6">
         <v>1</v>
@@ -1716,25 +2313,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="6">
         <v>100004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="8" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
@@ -1743,25 +2340,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="6">
         <v>100005</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="8" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
@@ -1770,25 +2367,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="6">
         <v>100006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="8" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="H10" s="6">
         <v>7</v>
@@ -1797,25 +2394,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="6">
         <v>100007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="8" t="s">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="H11" s="6">
         <v>7</v>
@@ -1824,25 +2421,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="6">
         <v>100008</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="8" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="H12" s="6">
         <v>7</v>
@@ -1851,25 +2448,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="6">
         <v>100009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="8" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="H13" s="6">
         <v>7</v>
@@ -1878,25 +2475,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="6">
         <v>100010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="8" t="s">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="H14" s="6">
         <v>7</v>
@@ -1905,25 +2502,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="6">
         <v>100011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="8" t="s">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="H15" s="6">
         <v>2</v>
@@ -1932,25 +2529,25 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="6">
         <v>100012</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="8" t="s">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="H16" s="6">
         <v>2</v>
@@ -1959,25 +2556,25 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>100013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="8" t="s">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="H17" s="6">
         <v>2</v>
@@ -1986,25 +2583,25 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>100014</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="8" t="s">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="H18" s="6">
         <v>2</v>
@@ -2013,25 +2610,25 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>100015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="8" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="H19" s="6">
         <v>1047</v>
@@ -2040,25 +2637,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>100016</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="8" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="H20" s="6">
         <v>1048</v>
@@ -2067,25 +2664,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>100017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="8" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="H21" s="6">
         <v>1049</v>
@@ -2094,25 +2691,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="6">
         <v>100018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="8" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="H22" s="6">
         <v>26</v>
@@ -2121,25 +2718,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="6">
         <v>100019</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="8" t="s">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="H23" s="6">
         <v>26</v>
@@ -2148,25 +2745,25 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="6">
         <v>100020</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="8" t="s">
-        <v>277</v>
+        <v>95</v>
       </c>
       <c r="H24" s="6">
         <v>26</v>
@@ -2175,25 +2772,25 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>100021</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="8" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="H25" s="6">
         <v>3</v>
@@ -2202,25 +2799,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>100022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="8" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="H26" s="6">
         <v>5</v>
@@ -2229,25 +2826,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="6">
         <v>100023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="8" t="s">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c r="H27" s="6">
         <v>5</v>
@@ -2256,25 +2853,25 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="6">
         <v>100024</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="8" t="s">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="H28" s="6">
         <v>8</v>
@@ -2283,25 +2880,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="6">
         <v>100025</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="8" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="H29" s="6">
         <v>8</v>
@@ -2310,25 +2907,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="6">
         <v>100026</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="8" t="s">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="H30" s="6">
         <v>6</v>
@@ -2337,25 +2934,25 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="6">
         <v>100027</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="8" t="s">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="H31" s="6">
         <v>6</v>
@@ -2364,25 +2961,25 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>100028</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="8" t="s">
-        <v>261</v>
+        <v>127</v>
       </c>
       <c r="H32" s="6">
         <v>6</v>
@@ -2391,25 +2988,25 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="6">
         <v>100029</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="8" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="H33" s="6">
         <v>6</v>
@@ -2418,25 +3015,25 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" s="6">
         <v>100030</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="8" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="H34" s="6">
         <v>9</v>
@@ -2445,25 +3042,25 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" s="6">
         <v>100031</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="8" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="H35" s="6">
         <v>9</v>
@@ -2472,25 +3069,25 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" s="6">
         <v>100032</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="8" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="H36" s="6">
         <v>10</v>
@@ -2499,25 +3096,25 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" s="6">
         <v>100033</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="8" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="H37" s="6">
         <v>10</v>
@@ -2526,25 +3123,25 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" s="6">
         <v>100034</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="8" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="H38" s="6">
         <v>11</v>
@@ -2553,25 +3150,25 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" s="6">
         <v>100035</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="8" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="H39" s="6">
         <v>11</v>
@@ -2580,25 +3177,25 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" s="6">
         <v>100036</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="8" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="H40" s="6">
         <v>12</v>
@@ -2607,25 +3204,25 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" s="6">
         <v>100037</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="8" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="H41" s="6">
         <v>12</v>
@@ -2634,25 +3231,25 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42" s="6">
         <v>100038</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="8" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="H42" s="6">
         <v>13</v>
@@ -2661,25 +3258,25 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="A43" s="6">
         <v>100039</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="8" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="H43" s="6">
         <v>13</v>
@@ -2688,25 +3285,25 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44" s="6">
         <v>100040</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="8" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="H44" s="6">
         <v>14</v>
@@ -2715,25 +3312,25 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="A45" s="6">
         <v>100041</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="8" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="H45" s="6">
         <v>14</v>
@@ -2742,25 +3339,25 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46" s="6">
         <v>100042</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="8" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="H46" s="6">
         <v>15</v>
@@ -2769,25 +3366,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="A47" s="6">
         <v>100043</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="8" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="H47" s="6">
         <v>15</v>
@@ -2796,25 +3393,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="A48" s="6">
         <v>100044</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="8" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="H48" s="6">
         <v>15</v>
@@ -2823,25 +3420,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9">
       <c r="A49" s="6">
         <v>100045</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="8" t="s">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="H49" s="6">
         <v>16</v>
@@ -2850,25 +3447,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9">
       <c r="A50" s="6">
         <v>100046</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="8" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="H50" s="6">
         <v>16</v>
@@ -2877,25 +3474,25 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9">
       <c r="A51" s="6">
         <v>100047</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="8" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="H51" s="6">
         <v>16</v>
@@ -2904,25 +3501,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="A52" s="6">
         <v>100048</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="8" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="H52" s="6">
         <v>16</v>
@@ -2931,25 +3528,25 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9">
       <c r="A53" s="6">
         <v>100049</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="8" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="H53" s="6">
         <v>17</v>
@@ -2958,79 +3555,79 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54" s="6">
         <v>100050</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="8" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="H54" s="6">
         <v>17</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9">
       <c r="A55" s="6">
         <v>100051</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>175</v>
+        <v>205</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H55" s="9">
+        <v>207</v>
+      </c>
+      <c r="H55" s="6">
         <v>18</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9">
       <c r="A56" s="6">
         <v>100052</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="8" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="H56" s="6">
         <v>19</v>
@@ -3039,25 +3636,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9">
       <c r="A57" s="6">
         <v>100053</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>181</v>
+        <v>212</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="8" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="H57" s="6">
         <v>21</v>
@@ -3066,25 +3663,25 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9">
       <c r="A58" s="6">
         <v>100054</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="8" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="H58" s="6">
         <v>20</v>
@@ -3093,18 +3690,18 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9">
       <c r="A59" s="6">
         <v>100055</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
@@ -3113,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="H59" s="6">
         <v>5</v>
@@ -3122,18 +3719,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9">
       <c r="A60" s="6">
         <v>100056</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="E60" s="6">
         <v>2</v>
@@ -3142,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="H60" s="6">
         <v>8</v>
@@ -3151,18 +3748,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9">
       <c r="A61" s="6">
         <v>100057</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="E61" s="6">
         <v>2</v>
@@ -3171,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="H61" s="6">
         <v>22</v>
@@ -3180,18 +3777,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9">
       <c r="A62" s="6">
         <v>100058</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
@@ -3200,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
@@ -3209,18 +3806,18 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9">
       <c r="A63" s="6">
         <v>100059</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="E63" s="6">
         <v>2</v>
@@ -3229,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="H63" s="6">
         <v>23</v>
@@ -3238,18 +3835,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9">
       <c r="A64" s="6">
         <v>100060</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -3258,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H64" s="6">
         <v>9</v>
@@ -3267,18 +3864,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9">
       <c r="A65" s="6">
         <v>100061</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="E65" s="6">
         <v>2</v>
@@ -3287,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H65" s="6">
         <v>10</v>
@@ -3296,18 +3893,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9">
       <c r="A66" s="6">
         <v>100062</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="E66" s="6">
         <v>2</v>
@@ -3316,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H66" s="6">
         <v>11</v>
@@ -3325,18 +3922,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9">
       <c r="A67" s="6">
         <v>100063</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="E67" s="6">
         <v>2</v>
@@ -3345,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H67" s="6">
         <v>12</v>
@@ -3354,18 +3951,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9">
       <c r="A68" s="6">
         <v>100064</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="E68" s="6">
         <v>2</v>
@@ -3374,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H68" s="6">
         <v>13</v>
@@ -3383,18 +3980,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9">
       <c r="A69" s="6">
         <v>100065</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="E69" s="6">
         <v>2</v>
@@ -3403,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H69" s="6">
         <v>14</v>
@@ -3412,18 +4009,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9">
       <c r="A70" s="6">
         <v>100066</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="E70" s="6">
         <v>2</v>
@@ -3432,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H70" s="6">
         <v>17</v>
@@ -3441,18 +4038,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9">
       <c r="A71" s="6">
         <v>100067</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="E71" s="6">
         <v>2</v>
@@ -3461,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H71" s="6">
         <v>18</v>
@@ -3470,18 +4067,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9">
       <c r="A72" s="6">
         <v>100068</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="E72" s="6">
         <v>2</v>
@@ -3490,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H72" s="6">
         <v>19</v>
@@ -3499,18 +4096,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9">
       <c r="A73" s="6">
         <v>100069</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="E73" s="6">
         <v>2</v>
@@ -3519,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H73" s="6">
         <v>21</v>
@@ -3528,18 +4125,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9">
       <c r="A74" s="6">
         <v>100070</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="E74" s="6">
         <v>2</v>
@@ -3548,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H74" s="6">
         <v>20</v>
@@ -3557,18 +4154,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9">
       <c r="A75" s="6">
         <v>100071</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="E75" s="6">
         <v>2</v>
@@ -3577,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H75" s="6">
         <v>15</v>
@@ -3586,18 +4183,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9">
       <c r="A76" s="6">
         <v>100072</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="E76" s="6">
         <v>2</v>
@@ -3606,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H76" s="6">
         <v>2</v>
@@ -3615,18 +4212,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9">
       <c r="A77" s="6">
         <v>100073</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="E77" s="6">
         <v>2</v>
@@ -3635,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H77" s="6">
         <v>25</v>
@@ -3645,8 +4242,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -2105,9 +2105,9 @@
   <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4177,7 +4177,7 @@
         <v>272</v>
       </c>
       <c r="H75" s="6">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I75" s="6">
         <v>1</v>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D971421-2381-4486-A42E-BE6D3693775C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -98,7 +102,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1.</t>
     </r>
@@ -106,6 +110,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>通过某关卡</t>
@@ -114,7 +119,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id
 2.</t>
@@ -123,6 +128,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>解锁科技树某</t>
@@ -131,7 +137,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -139,6 +145,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">科技
@@ -148,7 +155,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3.</t>
     </r>
@@ -156,6 +163,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">解锁多少个塔
@@ -165,7 +173,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -173,6 +181,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">副本获得多少星星
@@ -182,7 +191,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5.</t>
     </r>
@@ -190,6 +199,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">游玩几局游戏
@@ -199,7 +209,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>6.</t>
     </r>
@@ -207,6 +217,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>击败多少只怪物
@@ -849,9 +860,6 @@
     <t>今日完美通关10次</t>
   </si>
   <si>
-    <t>1|500||2|500||3|10</t>
-  </si>
-  <si>
     <t>Task_taskName_57</t>
   </si>
   <si>
@@ -1018,19 +1026,16 @@
   </si>
   <si>
     <t>2|70||3|10</t>
+  </si>
+  <si>
+    <t>1|200||2|500||3|10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1041,11 +1046,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1053,172 +1060,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1231,194 +1094,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1441,251 +1118,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1718,89 +1153,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1811,7 +1315,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1839,154 +1343,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2045,7 +1435,7 @@
         <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2096,36 +1486,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="27.3727272727273" style="2" customWidth="1"/>
-    <col min="3" max="5" width="26.1272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.6272727272727" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.1272727272727" customWidth="1"/>
-    <col min="8" max="9" width="25.2545454545455" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="26.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="9" width="25.25" style="2" customWidth="1"/>
     <col min="10" max="978" width="9" style="2"/>
-    <col min="979" max="985" width="11.6272727272727" style="2" customWidth="1"/>
+    <col min="979" max="985" width="11.625" style="2" customWidth="1"/>
     <col min="986" max="986" width="9" style="2"/>
-    <col min="987" max="997" width="11.6272727272727" style="2" customWidth="1"/>
+    <col min="987" max="997" width="11.625" style="2" customWidth="1"/>
     <col min="998" max="1024" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.5" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +1544,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.5" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +1574,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="408" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="408" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2215,7 +1604,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.5" spans="1:9">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2232,7 +1621,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>100001</v>
       </c>
@@ -2259,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>100002</v>
       </c>
@@ -2286,7 +1675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>100003</v>
       </c>
@@ -2313,7 +1702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>100004</v>
       </c>
@@ -2340,7 +1729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>100005</v>
       </c>
@@ -2367,7 +1756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>100006</v>
       </c>
@@ -2394,7 +1783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>100007</v>
       </c>
@@ -2421,7 +1810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>100008</v>
       </c>
@@ -2448,7 +1837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>100009</v>
       </c>
@@ -2475,7 +1864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>100010</v>
       </c>
@@ -2502,7 +1891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>100011</v>
       </c>
@@ -2529,7 +1918,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>100012</v>
       </c>
@@ -2556,7 +1945,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>100013</v>
       </c>
@@ -2583,7 +1972,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>100014</v>
       </c>
@@ -2610,7 +1999,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>100015</v>
       </c>
@@ -2637,7 +2026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>100016</v>
       </c>
@@ -2664,7 +2053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>100017</v>
       </c>
@@ -2691,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>100018</v>
       </c>
@@ -2718,7 +2107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>100019</v>
       </c>
@@ -2745,7 +2134,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>100020</v>
       </c>
@@ -2772,7 +2161,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>100021</v>
       </c>
@@ -2799,7 +2188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>100022</v>
       </c>
@@ -2826,7 +2215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>100023</v>
       </c>
@@ -2853,7 +2242,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>100024</v>
       </c>
@@ -2880,7 +2269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>100025</v>
       </c>
@@ -2907,7 +2296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>100026</v>
       </c>
@@ -2934,7 +2323,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>100027</v>
       </c>
@@ -2961,7 +2350,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>100028</v>
       </c>
@@ -2988,7 +2377,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>100029</v>
       </c>
@@ -3015,7 +2404,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>100030</v>
       </c>
@@ -3042,7 +2431,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>100031</v>
       </c>
@@ -3069,7 +2458,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>100032</v>
       </c>
@@ -3096,7 +2485,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>100033</v>
       </c>
@@ -3123,7 +2512,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>100034</v>
       </c>
@@ -3150,7 +2539,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>100035</v>
       </c>
@@ -3177,7 +2566,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>100036</v>
       </c>
@@ -3204,7 +2593,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>100037</v>
       </c>
@@ -3231,7 +2620,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>100038</v>
       </c>
@@ -3258,7 +2647,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>100039</v>
       </c>
@@ -3285,7 +2674,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>100040</v>
       </c>
@@ -3312,7 +2701,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>100041</v>
       </c>
@@ -3339,7 +2728,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>100042</v>
       </c>
@@ -3366,7 +2755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>100043</v>
       </c>
@@ -3393,7 +2782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>100044</v>
       </c>
@@ -3420,7 +2809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>100045</v>
       </c>
@@ -3447,7 +2836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>100046</v>
       </c>
@@ -3474,7 +2863,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>100047</v>
       </c>
@@ -3501,7 +2890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>100048</v>
       </c>
@@ -3528,7 +2917,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>100049</v>
       </c>
@@ -3555,7 +2944,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>100050</v>
       </c>
@@ -3582,7 +2971,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>100051</v>
       </c>
@@ -3609,7 +2998,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>100052</v>
       </c>
@@ -3636,7 +3025,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>100053</v>
       </c>
@@ -3663,7 +3052,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>100054</v>
       </c>
@@ -3690,7 +3079,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>100055</v>
       </c>
@@ -3716,10 +3105,10 @@
         <v>5</v>
       </c>
       <c r="I59" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>100056</v>
       </c>
@@ -3739,27 +3128,27 @@
         <v>1</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="H60" s="6">
         <v>8</v>
       </c>
       <c r="I60" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>100057</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="E61" s="6">
         <v>2</v>
@@ -3768,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H61" s="6">
         <v>22</v>
@@ -3777,18 +3166,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>100058</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
@@ -3797,27 +3186,27 @@
         <v>1</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
       </c>
       <c r="I62" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>100059</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="E63" s="6">
         <v>2</v>
@@ -3826,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H63" s="6">
         <v>23</v>
@@ -3835,18 +3224,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>100060</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -3855,27 +3244,27 @@
         <v>1</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H64" s="6">
         <v>9</v>
       </c>
       <c r="I64" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
         <v>100061</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="E65" s="6">
         <v>2</v>
@@ -3884,27 +3273,27 @@
         <v>1</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H65" s="6">
         <v>10</v>
       </c>
       <c r="I65" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="6">
         <v>100062</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="E66" s="6">
         <v>2</v>
@@ -3913,27 +3302,27 @@
         <v>1</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H66" s="6">
         <v>11</v>
       </c>
       <c r="I66" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <v>100063</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="E67" s="6">
         <v>2</v>
@@ -3942,27 +3331,27 @@
         <v>1</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H67" s="6">
         <v>12</v>
       </c>
       <c r="I67" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <v>100064</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="E68" s="6">
         <v>2</v>
@@ -3971,27 +3360,27 @@
         <v>1</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H68" s="6">
         <v>13</v>
       </c>
       <c r="I68" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="6">
         <v>100065</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="E69" s="6">
         <v>2</v>
@@ -4000,27 +3389,27 @@
         <v>1</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H69" s="6">
         <v>14</v>
       </c>
       <c r="I69" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <v>100066</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="E70" s="6">
         <v>2</v>
@@ -4029,27 +3418,27 @@
         <v>1</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H70" s="6">
         <v>17</v>
       </c>
       <c r="I70" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="6">
         <v>100067</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="E71" s="6">
         <v>2</v>
@@ -4058,27 +3447,27 @@
         <v>1</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H71" s="6">
         <v>18</v>
       </c>
       <c r="I71" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="6">
         <v>100068</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="E72" s="6">
         <v>2</v>
@@ -4087,27 +3476,27 @@
         <v>1</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H72" s="6">
         <v>19</v>
       </c>
       <c r="I72" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
         <v>100069</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="E73" s="6">
         <v>2</v>
@@ -4116,27 +3505,27 @@
         <v>1</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H73" s="6">
         <v>21</v>
       </c>
       <c r="I73" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="6">
         <v>100070</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="E74" s="6">
         <v>2</v>
@@ -4145,27 +3534,27 @@
         <v>1</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H74" s="6">
         <v>20</v>
       </c>
       <c r="I74" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="6">
         <v>100071</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="E75" s="6">
         <v>2</v>
@@ -4174,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H75" s="6">
         <v>27</v>
@@ -4183,18 +3572,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="6">
         <v>100072</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="E76" s="6">
         <v>2</v>
@@ -4203,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H76" s="6">
         <v>2</v>
@@ -4212,18 +3601,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="6">
         <v>100073</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="E77" s="6">
         <v>2</v>
@@ -4232,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H77" s="6">
         <v>25</v>
@@ -4242,8 +3631,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D971421-2381-4486-A42E-BE6D3693775C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8609F8-B2EB-4F62-93B3-8953539A2826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
     <t>2|70||3|10</t>
   </si>
   <si>
-    <t>1|200||2|500||3|10</t>
+    <t>1|500||2|500||3|10</t>
   </si>
 </sst>
 </file>
@@ -1495,8 +1495,8 @@
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8609F8-B2EB-4F62-93B3-8953539A2826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CC7EE-BEC7-4B96-BFE1-D79557C0B9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,190 +845,191 @@
     <t>Task_taskinfo_55</t>
   </si>
   <si>
+    <t>1|200||2|120||3|10</t>
+  </si>
+  <si>
+    <t>Task_taskName_56</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_56</t>
+  </si>
+  <si>
+    <t>今日完美通关10次</t>
+  </si>
+  <si>
+    <t>Task_taskName_57</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_57</t>
+  </si>
+  <si>
+    <t>今日挑战无尽关卡3次</t>
+  </si>
+  <si>
+    <t>1|300||2|70||3|10</t>
+  </si>
+  <si>
+    <t>Task_taskName_58</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_58</t>
+  </si>
+  <si>
+    <t>今日击败怪物300个</t>
+  </si>
+  <si>
+    <t>Task_taskName_59</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_59</t>
+  </si>
+  <si>
+    <t>今日击败无尽关卡首领3个</t>
+  </si>
+  <si>
+    <t>Task_taskName_60</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_60</t>
+  </si>
+  <si>
+    <t>今日部署光元素塔200次</t>
+  </si>
+  <si>
+    <t>1|100||2|70||3|10</t>
+  </si>
+  <si>
+    <t>Task_taskName_61</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_61</t>
+  </si>
+  <si>
+    <t>今日部署暗元素塔200次</t>
+  </si>
+  <si>
+    <t>Task_taskName_62</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_62</t>
+  </si>
+  <si>
+    <t>今日部署水元素塔200次</t>
+  </si>
+  <si>
+    <t>Task_taskName_63</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_63</t>
+  </si>
+  <si>
+    <t>今日部署火元素塔200次</t>
+  </si>
+  <si>
+    <t>Task_taskName_64</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_64</t>
+  </si>
+  <si>
+    <t>今日部署木元素塔200次</t>
+  </si>
+  <si>
+    <t>Task_taskName_65</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_65</t>
+  </si>
+  <si>
+    <t>今日部署土元素塔200次</t>
+  </si>
+  <si>
+    <t>Task_taskName_66</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_66</t>
+  </si>
+  <si>
+    <t>今日强化3级塔100次</t>
+  </si>
+  <si>
+    <t>Task_taskName_67</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_67</t>
+  </si>
+  <si>
+    <t>今日击败复原力怪物200只</t>
+  </si>
+  <si>
+    <t>Task_taskName_68</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_68</t>
+  </si>
+  <si>
+    <t>今日击败狂暴怪物200只</t>
+  </si>
+  <si>
+    <t>Task_taskName_69</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_69</t>
+  </si>
+  <si>
+    <t>今日击败隐身怪物200只</t>
+  </si>
+  <si>
+    <t>Task_taskName_70</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_70</t>
+  </si>
+  <si>
+    <t>今日击败飞行怪物200只</t>
+  </si>
+  <si>
+    <t>Task_taskName_71</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_71</t>
+  </si>
+  <si>
+    <t>今日角色完成一次升级</t>
+  </si>
+  <si>
+    <t>1|200||2|70||3|10</t>
+  </si>
+  <si>
+    <t>Task_taskName_72</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_72</t>
+  </si>
+  <si>
+    <t>今日解锁一点天赋</t>
+  </si>
+  <si>
+    <t>3|20</t>
+  </si>
+  <si>
+    <t>Task_taskName_73</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_73</t>
+  </si>
+  <si>
+    <t>今日解锁一个塔</t>
+  </si>
+  <si>
+    <t>2|70||3|10</t>
+  </si>
+  <si>
+    <t>1|500||2|500||3|10</t>
+  </si>
+  <si>
     <t>今日游戏10次</t>
-  </si>
-  <si>
-    <t>1|200||2|120||3|10</t>
-  </si>
-  <si>
-    <t>Task_taskName_56</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_56</t>
-  </si>
-  <si>
-    <t>今日完美通关10次</t>
-  </si>
-  <si>
-    <t>Task_taskName_57</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_57</t>
-  </si>
-  <si>
-    <t>今日挑战无尽关卡3次</t>
-  </si>
-  <si>
-    <t>1|300||2|70||3|10</t>
-  </si>
-  <si>
-    <t>Task_taskName_58</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_58</t>
-  </si>
-  <si>
-    <t>今日击败怪物300个</t>
-  </si>
-  <si>
-    <t>Task_taskName_59</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_59</t>
-  </si>
-  <si>
-    <t>今日击败无尽关卡首领3个</t>
-  </si>
-  <si>
-    <t>Task_taskName_60</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_60</t>
-  </si>
-  <si>
-    <t>今日部署光元素塔200次</t>
-  </si>
-  <si>
-    <t>1|100||2|70||3|10</t>
-  </si>
-  <si>
-    <t>Task_taskName_61</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_61</t>
-  </si>
-  <si>
-    <t>今日部署暗元素塔200次</t>
-  </si>
-  <si>
-    <t>Task_taskName_62</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_62</t>
-  </si>
-  <si>
-    <t>今日部署水元素塔200次</t>
-  </si>
-  <si>
-    <t>Task_taskName_63</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_63</t>
-  </si>
-  <si>
-    <t>今日部署火元素塔200次</t>
-  </si>
-  <si>
-    <t>Task_taskName_64</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_64</t>
-  </si>
-  <si>
-    <t>今日部署木元素塔200次</t>
-  </si>
-  <si>
-    <t>Task_taskName_65</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_65</t>
-  </si>
-  <si>
-    <t>今日部署土元素塔200次</t>
-  </si>
-  <si>
-    <t>Task_taskName_66</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_66</t>
-  </si>
-  <si>
-    <t>今日强化3级塔100次</t>
-  </si>
-  <si>
-    <t>Task_taskName_67</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_67</t>
-  </si>
-  <si>
-    <t>今日击败复原力怪物200只</t>
-  </si>
-  <si>
-    <t>Task_taskName_68</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_68</t>
-  </si>
-  <si>
-    <t>今日击败狂暴怪物200只</t>
-  </si>
-  <si>
-    <t>Task_taskName_69</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_69</t>
-  </si>
-  <si>
-    <t>今日击败隐身怪物200只</t>
-  </si>
-  <si>
-    <t>Task_taskName_70</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_70</t>
-  </si>
-  <si>
-    <t>今日击败飞行怪物200只</t>
-  </si>
-  <si>
-    <t>Task_taskName_71</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_71</t>
-  </si>
-  <si>
-    <t>今日角色完成一次升级</t>
-  </si>
-  <si>
-    <t>1|200||2|70||3|10</t>
-  </si>
-  <si>
-    <t>Task_taskName_72</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_72</t>
-  </si>
-  <si>
-    <t>今日解锁一点天赋</t>
-  </si>
-  <si>
-    <t>3|20</t>
-  </si>
-  <si>
-    <t>Task_taskName_73</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_73</t>
-  </si>
-  <si>
-    <t>今日解锁一个塔</t>
-  </si>
-  <si>
-    <t>2|70||3|10</t>
-  </si>
-  <si>
-    <t>1|500||2|500||3|10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1495,8 +1496,8 @@
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3090,7 +3091,7 @@
         <v>218</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
@@ -3099,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H59" s="6">
         <v>5</v>
@@ -3113,13 +3114,13 @@
         <v>100056</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="E60" s="6">
         <v>2</v>
@@ -3128,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H60" s="6">
         <v>8</v>
@@ -3142,13 +3143,13 @@
         <v>100057</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="E61" s="6">
         <v>2</v>
@@ -3157,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H61" s="6">
         <v>22</v>
@@ -3171,13 +3172,13 @@
         <v>100058</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
@@ -3186,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
@@ -3200,13 +3201,13 @@
         <v>100059</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="E63" s="6">
         <v>2</v>
@@ -3215,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H63" s="6">
         <v>23</v>
@@ -3229,13 +3230,13 @@
         <v>100060</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -3244,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H64" s="6">
         <v>9</v>
@@ -3258,13 +3259,13 @@
         <v>100061</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="E65" s="6">
         <v>2</v>
@@ -3273,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H65" s="6">
         <v>10</v>
@@ -3287,13 +3288,13 @@
         <v>100062</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="E66" s="6">
         <v>2</v>
@@ -3302,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H66" s="6">
         <v>11</v>
@@ -3316,13 +3317,13 @@
         <v>100063</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="E67" s="6">
         <v>2</v>
@@ -3331,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H67" s="6">
         <v>12</v>
@@ -3345,13 +3346,13 @@
         <v>100064</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="E68" s="6">
         <v>2</v>
@@ -3360,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H68" s="6">
         <v>13</v>
@@ -3374,13 +3375,13 @@
         <v>100065</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="E69" s="6">
         <v>2</v>
@@ -3389,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H69" s="6">
         <v>14</v>
@@ -3403,13 +3404,13 @@
         <v>100066</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="E70" s="6">
         <v>2</v>
@@ -3418,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H70" s="6">
         <v>17</v>
@@ -3432,13 +3433,13 @@
         <v>100067</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="E71" s="6">
         <v>2</v>
@@ -3447,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H71" s="6">
         <v>18</v>
@@ -3461,13 +3462,13 @@
         <v>100068</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="E72" s="6">
         <v>2</v>
@@ -3476,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H72" s="6">
         <v>19</v>
@@ -3490,13 +3491,13 @@
         <v>100069</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="E73" s="6">
         <v>2</v>
@@ -3505,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H73" s="6">
         <v>21</v>
@@ -3519,13 +3520,13 @@
         <v>100070</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="E74" s="6">
         <v>2</v>
@@ -3534,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H74" s="6">
         <v>20</v>
@@ -3548,13 +3549,13 @@
         <v>100071</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="E75" s="6">
         <v>2</v>
@@ -3563,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H75" s="6">
         <v>27</v>
@@ -3577,13 +3578,13 @@
         <v>100072</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="E76" s="6">
         <v>2</v>
@@ -3592,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H76" s="6">
         <v>2</v>
@@ -3606,13 +3607,13 @@
         <v>100073</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="E77" s="6">
         <v>2</v>
@@ -3621,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H77" s="6">
         <v>25</v>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CC7EE-BEC7-4B96-BFE1-D79557C0B9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D29B13-69A6-4287-9E9B-CA77AA55C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="319">
   <si>
     <t>int</t>
   </si>
@@ -704,12 +704,6 @@
     <t>Task_taskinfo_42</t>
   </si>
   <si>
-    <t>角色等级到达18级</t>
-  </si>
-  <si>
-    <t>1|800||2|400</t>
-  </si>
-  <si>
     <t>Task_taskName_43</t>
   </si>
   <si>
@@ -719,9 +713,6 @@
     <t>角色等级到达30级</t>
   </si>
   <si>
-    <t>1|1000||2|600</t>
-  </si>
-  <si>
     <t>Task_taskName_44</t>
   </si>
   <si>
@@ -731,9 +722,6 @@
     <t>角色等级到达50级</t>
   </si>
   <si>
-    <t>1|1500||2|800</t>
-  </si>
-  <si>
     <t>Task_taskName_45</t>
   </si>
   <si>
@@ -743,9 +731,6 @@
     <t>无尽关卡成功抵御10波</t>
   </si>
   <si>
-    <t>1|400||2|200</t>
-  </si>
-  <si>
     <t>Task_taskName_46</t>
   </si>
   <si>
@@ -755,9 +740,6 @@
     <t>无尽关卡成功抵御30波</t>
   </si>
   <si>
-    <t>1|600||2|300</t>
-  </si>
-  <si>
     <t>Task_taskName_47</t>
   </si>
   <si>
@@ -771,12 +753,6 @@
   </si>
   <si>
     <t>Task_taskinfo_48</t>
-  </si>
-  <si>
-    <t>无尽关卡成功抵御100波</t>
-  </si>
-  <si>
-    <t>1|1000||2|500</t>
   </si>
   <si>
     <t>Task_taskName_49</t>
@@ -1030,6 +1006,144 @@
   <si>
     <t>今日游戏10次</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task_taskName_74</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_74</t>
+  </si>
+  <si>
+    <t>角色等级到达40级</t>
+  </si>
+  <si>
+    <t>1|400||2|400</t>
+  </si>
+  <si>
+    <t>Task_taskName_75</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_75</t>
+  </si>
+  <si>
+    <t>1|500||2|500</t>
+  </si>
+  <si>
+    <t>Task_taskName_76</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_76</t>
+  </si>
+  <si>
+    <t>角色等级到达60级</t>
+  </si>
+  <si>
+    <t>1|600||2|600</t>
+  </si>
+  <si>
+    <t>Task_taskName_77</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_77</t>
+  </si>
+  <si>
+    <t>角色等级到达70级</t>
+  </si>
+  <si>
+    <t>1|700||2|700</t>
+  </si>
+  <si>
+    <t>Task_taskName_78</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_78</t>
+  </si>
+  <si>
+    <t>无尽关卡成功抵御90波</t>
+  </si>
+  <si>
+    <t>1|500||2|300</t>
+  </si>
+  <si>
+    <t>Task_taskName_79</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_79</t>
+  </si>
+  <si>
+    <t>无尽关卡成功抵御110波</t>
+  </si>
+  <si>
+    <t>1|600||2|350</t>
+  </si>
+  <si>
+    <t>Task_taskName_80</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_80</t>
+  </si>
+  <si>
+    <t>无尽关卡成功抵御130波</t>
+  </si>
+  <si>
+    <t>1|700||2|400</t>
+  </si>
+  <si>
+    <t>Task_taskName_81</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_81</t>
+  </si>
+  <si>
+    <t>无尽关卡成功抵御150波</t>
+  </si>
+  <si>
+    <t>1|800||2|450</t>
+  </si>
+  <si>
+    <t>Task_taskName_82</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_82</t>
+  </si>
+  <si>
+    <t>无尽关卡成功抵御170波</t>
+  </si>
+  <si>
+    <t>1|900||2|500</t>
+  </si>
+  <si>
+    <t>角色等级到达10级</t>
+  </si>
+  <si>
+    <t>1|100||2|100</t>
+  </si>
+  <si>
+    <t>角色等级到达20级</t>
+  </si>
+  <si>
+    <t>1|200||2|200</t>
+  </si>
+  <si>
+    <t>1|300||2|300</t>
+  </si>
+  <si>
+    <t>1|200||2|150</t>
+  </si>
+  <si>
+    <t>1|300||2|200</t>
+  </si>
+  <si>
+    <t>无尽关卡成功抵御70波</t>
+  </si>
+  <si>
+    <t>1|400||2|250</t>
+  </si>
+  <si>
+    <t>dragonPoints</t>
+  </si>
+  <si>
+    <t>活动赛季积分</t>
   </si>
 </sst>
 </file>
@@ -1493,11 +1607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ77"/>
+  <dimension ref="A1:AMJ86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1508,7 +1622,8 @@
     <col min="6" max="6" width="42.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="8" max="9" width="25.25" style="2" customWidth="1"/>
-    <col min="10" max="978" width="9" style="2"/>
+    <col min="10" max="10" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="978" width="9" style="2"/>
     <col min="979" max="985" width="11.625" style="2" customWidth="1"/>
     <col min="986" max="986" width="9" style="2"/>
     <col min="987" max="997" width="11.625" style="2" customWidth="1"/>
@@ -1543,7 +1658,9 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -1573,7 +1690,9 @@
       <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="408" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -1603,7 +1722,9 @@
       <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1646,7 +1767,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1673,7 +1797,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="6">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1700,7 +1827,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="6">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1727,7 +1857,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="6">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="J8" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1754,7 +1887,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="6">
-        <v>42</v>
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1783,6 +1919,9 @@
       <c r="I10" s="6">
         <v>2</v>
       </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
@@ -1808,7 +1947,10 @@
         <v>7</v>
       </c>
       <c r="I11" s="6">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1835,7 +1977,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="6">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="J12" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1862,7 +2007,10 @@
         <v>7</v>
       </c>
       <c r="I13" s="6">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="J13" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1889,7 +2037,10 @@
         <v>7</v>
       </c>
       <c r="I14" s="6">
-        <v>42</v>
+        <v>200</v>
+      </c>
+      <c r="J14" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -1916,7 +2067,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="6">
-        <v>1015</v>
+        <v>5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1943,10 +2097,13 @@
         <v>2</v>
       </c>
       <c r="I16" s="6">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>100013</v>
       </c>
@@ -1970,10 +2127,13 @@
         <v>2</v>
       </c>
       <c r="I17" s="6">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="J17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>100014</v>
       </c>
@@ -1997,10 +2157,13 @@
         <v>2</v>
       </c>
       <c r="I18" s="6">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>100015</v>
       </c>
@@ -2024,10 +2187,13 @@
         <v>1047</v>
       </c>
       <c r="I19" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="J19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>100016</v>
       </c>
@@ -2051,10 +2217,13 @@
         <v>1048</v>
       </c>
       <c r="I20" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="J20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>100017</v>
       </c>
@@ -2078,10 +2247,13 @@
         <v>1049</v>
       </c>
       <c r="I21" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>100018</v>
       </c>
@@ -2105,10 +2277,13 @@
         <v>26</v>
       </c>
       <c r="I22" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>100019</v>
       </c>
@@ -2132,10 +2307,13 @@
         <v>26</v>
       </c>
       <c r="I23" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="J23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>100020</v>
       </c>
@@ -2159,10 +2337,13 @@
         <v>26</v>
       </c>
       <c r="I24" s="6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>100021</v>
       </c>
@@ -2186,10 +2367,13 @@
         <v>3</v>
       </c>
       <c r="I25" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="J25" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>100022</v>
       </c>
@@ -2213,10 +2397,13 @@
         <v>5</v>
       </c>
       <c r="I26" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="J26" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>100023</v>
       </c>
@@ -2240,10 +2427,13 @@
         <v>5</v>
       </c>
       <c r="I27" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="J27" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>100024</v>
       </c>
@@ -2269,8 +2459,11 @@
       <c r="I28" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J28" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>100025</v>
       </c>
@@ -2296,8 +2489,11 @@
       <c r="I29" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J29" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>100026</v>
       </c>
@@ -2321,10 +2517,13 @@
         <v>6</v>
       </c>
       <c r="I30" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="J30" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>100027</v>
       </c>
@@ -2348,10 +2547,13 @@
         <v>6</v>
       </c>
       <c r="I31" s="6">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="J31" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>100028</v>
       </c>
@@ -2375,10 +2577,13 @@
         <v>6</v>
       </c>
       <c r="I32" s="6">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="J32" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>100029</v>
       </c>
@@ -2402,10 +2607,13 @@
         <v>6</v>
       </c>
       <c r="I33" s="6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="J33" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>100030</v>
       </c>
@@ -2429,10 +2637,13 @@
         <v>9</v>
       </c>
       <c r="I34" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J34" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>100031</v>
       </c>
@@ -2456,10 +2667,13 @@
         <v>9</v>
       </c>
       <c r="I35" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J35" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>100032</v>
       </c>
@@ -2483,10 +2697,13 @@
         <v>10</v>
       </c>
       <c r="I36" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J36" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>100033</v>
       </c>
@@ -2510,10 +2727,13 @@
         <v>10</v>
       </c>
       <c r="I37" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J37" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>100034</v>
       </c>
@@ -2537,10 +2757,13 @@
         <v>11</v>
       </c>
       <c r="I38" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J38" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>100035</v>
       </c>
@@ -2564,10 +2787,13 @@
         <v>11</v>
       </c>
       <c r="I39" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J39" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>100036</v>
       </c>
@@ -2591,10 +2817,13 @@
         <v>12</v>
       </c>
       <c r="I40" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J40" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>100037</v>
       </c>
@@ -2618,10 +2847,13 @@
         <v>12</v>
       </c>
       <c r="I41" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J41" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>100038</v>
       </c>
@@ -2645,10 +2877,13 @@
         <v>13</v>
       </c>
       <c r="I42" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J42" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>100039</v>
       </c>
@@ -2672,10 +2907,13 @@
         <v>13</v>
       </c>
       <c r="I43" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J43" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>100040</v>
       </c>
@@ -2699,10 +2937,13 @@
         <v>14</v>
       </c>
       <c r="I44" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J44" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>100041</v>
       </c>
@@ -2726,10 +2967,13 @@
         <v>14</v>
       </c>
       <c r="I45" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="J45" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>100042</v>
       </c>
@@ -2740,196 +2984,217 @@
         <v>171</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="8" t="s">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="H46" s="6">
         <v>15</v>
       </c>
       <c r="I46" s="6">
+        <v>10</v>
+      </c>
+      <c r="J46" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>100043</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>176</v>
+        <v>310</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="8" t="s">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="H47" s="6">
         <v>15</v>
       </c>
       <c r="I47" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="J47" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>100044</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="8" t="s">
-        <v>181</v>
+        <v>312</v>
       </c>
       <c r="H48" s="6">
         <v>15</v>
       </c>
       <c r="I48" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="J48" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>100045</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="8" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="H49" s="6">
         <v>16</v>
       </c>
       <c r="I49" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="J49" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>100046</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="8" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="H50" s="6">
         <v>16</v>
       </c>
       <c r="I50" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="J50" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>100047</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="8" t="s">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="H51" s="6">
         <v>16</v>
       </c>
       <c r="I51" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="J51" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>100048</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>195</v>
+        <v>315</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="8" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="H52" s="6">
         <v>16</v>
       </c>
       <c r="I52" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="J52" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>100049</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
@@ -2942,156 +3207,174 @@
         <v>17</v>
       </c>
       <c r="I53" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="J53" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>100050</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H54" s="6">
         <v>17</v>
       </c>
       <c r="I54" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="J54" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>100051</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H55" s="6">
         <v>18</v>
       </c>
       <c r="I55" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="J55" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>100052</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H56" s="6">
         <v>19</v>
       </c>
       <c r="I56" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="J56" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>100053</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H57" s="6">
         <v>21</v>
       </c>
       <c r="I57" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="J57" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>100054</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H58" s="6">
         <v>20</v>
       </c>
       <c r="I58" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="J58" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>100055</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
@@ -3100,27 +3383,30 @@
         <v>1</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H59" s="6">
         <v>5</v>
       </c>
       <c r="I59" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="J59" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>100056</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E60" s="6">
         <v>2</v>
@@ -3129,27 +3415,30 @@
         <v>1</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H60" s="6">
         <v>8</v>
       </c>
       <c r="I60" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="J60" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>100057</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E61" s="6">
         <v>2</v>
@@ -3158,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H61" s="6">
         <v>22</v>
@@ -3166,19 +3455,22 @@
       <c r="I61" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J61" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>100058</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
@@ -3187,27 +3479,30 @@
         <v>1</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
       </c>
       <c r="I62" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="J62" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>100059</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E63" s="6">
         <v>2</v>
@@ -3216,27 +3511,30 @@
         <v>1</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H63" s="6">
         <v>23</v>
       </c>
       <c r="I63" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="J63" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>100060</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -3245,27 +3543,30 @@
         <v>1</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H64" s="6">
         <v>9</v>
       </c>
       <c r="I64" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="J64" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
         <v>100061</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E65" s="6">
         <v>2</v>
@@ -3274,27 +3575,30 @@
         <v>1</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H65" s="6">
         <v>10</v>
       </c>
       <c r="I65" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="J65" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="6">
         <v>100062</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E66" s="6">
         <v>2</v>
@@ -3303,27 +3607,30 @@
         <v>1</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H66" s="6">
         <v>11</v>
       </c>
       <c r="I66" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="J66" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <v>100063</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E67" s="6">
         <v>2</v>
@@ -3332,27 +3639,30 @@
         <v>1</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H67" s="6">
         <v>12</v>
       </c>
       <c r="I67" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="J67" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <v>100064</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E68" s="6">
         <v>2</v>
@@ -3361,27 +3671,30 @@
         <v>1</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H68" s="6">
         <v>13</v>
       </c>
       <c r="I68" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="J68" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="6">
         <v>100065</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E69" s="6">
         <v>2</v>
@@ -3390,27 +3703,30 @@
         <v>1</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H69" s="6">
         <v>14</v>
       </c>
       <c r="I69" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="J69" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <v>100066</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E70" s="6">
         <v>2</v>
@@ -3419,27 +3735,30 @@
         <v>1</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H70" s="6">
         <v>17</v>
       </c>
       <c r="I70" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="J70" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="6">
         <v>100067</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E71" s="6">
         <v>2</v>
@@ -3448,27 +3767,30 @@
         <v>1</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H71" s="6">
         <v>18</v>
       </c>
       <c r="I71" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="J71" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="6">
         <v>100068</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E72" s="6">
         <v>2</v>
@@ -3477,27 +3799,30 @@
         <v>1</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H72" s="6">
         <v>19</v>
       </c>
       <c r="I72" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="J72" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
         <v>100069</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E73" s="6">
         <v>2</v>
@@ -3506,27 +3831,30 @@
         <v>1</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H73" s="6">
         <v>21</v>
       </c>
       <c r="I73" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="J73" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="6">
         <v>100070</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E74" s="6">
         <v>2</v>
@@ -3535,27 +3863,30 @@
         <v>1</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H74" s="6">
         <v>20</v>
       </c>
       <c r="I74" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="6">
         <v>100071</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E75" s="6">
         <v>2</v>
@@ -3564,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H75" s="6">
         <v>27</v>
@@ -3572,19 +3903,22 @@
       <c r="I75" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="6">
         <v>100072</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E76" s="6">
         <v>2</v>
@@ -3593,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H76" s="6">
         <v>2</v>
@@ -3601,19 +3935,22 @@
       <c r="I76" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="6">
         <v>100073</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E77" s="6">
         <v>2</v>
@@ -3622,13 +3959,277 @@
         <v>1</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H77" s="6">
         <v>25</v>
       </c>
       <c r="I77" s="6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J77" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>100074</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>276</v>
+      </c>
+      <c r="H78" s="2">
+        <v>15</v>
+      </c>
+      <c r="I78" s="2">
+        <v>40</v>
+      </c>
+      <c r="J78" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>100075</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>279</v>
+      </c>
+      <c r="H79" s="2">
+        <v>15</v>
+      </c>
+      <c r="I79" s="2">
+        <v>50</v>
+      </c>
+      <c r="J79" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>100076</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>283</v>
+      </c>
+      <c r="H80" s="2">
+        <v>15</v>
+      </c>
+      <c r="I80" s="2">
+        <v>60</v>
+      </c>
+      <c r="J80" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>100077</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>287</v>
+      </c>
+      <c r="H81" s="2">
+        <v>15</v>
+      </c>
+      <c r="I81" s="2">
+        <v>70</v>
+      </c>
+      <c r="J81" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>100078</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>291</v>
+      </c>
+      <c r="H82" s="2">
+        <v>16</v>
+      </c>
+      <c r="I82" s="2">
+        <v>90</v>
+      </c>
+      <c r="J82" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>100079</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>295</v>
+      </c>
+      <c r="H83" s="2">
+        <v>16</v>
+      </c>
+      <c r="I83" s="2">
+        <v>110</v>
+      </c>
+      <c r="J83" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>100080</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>299</v>
+      </c>
+      <c r="H84" s="2">
+        <v>16</v>
+      </c>
+      <c r="I84" s="2">
+        <v>130</v>
+      </c>
+      <c r="J84" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>100081</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>303</v>
+      </c>
+      <c r="H85" s="2">
+        <v>16</v>
+      </c>
+      <c r="I85" s="2">
+        <v>150</v>
+      </c>
+      <c r="J85" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>100082</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>307</v>
+      </c>
+      <c r="H86" s="2">
+        <v>16</v>
+      </c>
+      <c r="I86" s="2">
+        <v>170</v>
+      </c>
+      <c r="J86" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Task_任务.xlsx
+++ b/nevergiveup/Excel/Task_任务.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D29B13-69A6-4287-9E9B-CA77AA55C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="18375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -72,6 +68,9 @@
     <t>taskSolvetime</t>
   </si>
   <si>
+    <t>dragonPoints</t>
+  </si>
+  <si>
     <t>任务名称</t>
   </si>
   <si>
@@ -95,6 +94,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">任务类型
 </t>
     </r>
@@ -102,7 +106,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1.</t>
     </r>
@@ -110,7 +114,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>通过某关卡</t>
@@ -119,7 +122,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>id
 2.</t>
@@ -128,7 +131,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>解锁科技树某</t>
@@ -137,7 +139,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>id</t>
     </r>
@@ -145,7 +147,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">科技
@@ -155,7 +156,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3.</t>
     </r>
@@ -163,7 +164,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">解锁多少个塔
@@ -173,7 +173,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4.</t>
     </r>
@@ -181,7 +181,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">副本获得多少星星
@@ -191,7 +190,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5.</t>
     </r>
@@ -199,7 +198,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">游玩几局游戏
@@ -209,7 +207,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>6.</t>
     </r>
@@ -217,7 +215,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>击败多少只怪物
@@ -251,6 +248,9 @@
     <t>任务需要的量</t>
   </si>
   <si>
+    <t>活动赛季积分</t>
+  </si>
+  <si>
     <t>tag</t>
   </si>
   <si>
@@ -470,7 +470,7 @@
     <t>Task_taskinfo_20</t>
   </si>
   <si>
-    <t>累计解锁天赋150点</t>
+    <t>累计解锁天赋180点</t>
   </si>
   <si>
     <t>1|500||2|300||3|10</t>
@@ -704,328 +704,354 @@
     <t>Task_taskinfo_42</t>
   </si>
   <si>
+    <t>角色等级到达10级</t>
+  </si>
+  <si>
+    <t>1|100||2|100</t>
+  </si>
+  <si>
     <t>Task_taskName_43</t>
   </si>
   <si>
     <t>Task_taskinfo_43</t>
   </si>
   <si>
+    <t>角色等级到达20级</t>
+  </si>
+  <si>
+    <t>1|200||2|200</t>
+  </si>
+  <si>
+    <t>Task_taskName_44</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_44</t>
+  </si>
+  <si>
     <t>角色等级到达30级</t>
   </si>
   <si>
-    <t>Task_taskName_44</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_44</t>
+    <t>1|300||2|300</t>
+  </si>
+  <si>
+    <t>Task_taskName_45</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_45</t>
+  </si>
+  <si>
+    <t>无尽关卡成功抵御10波</t>
+  </si>
+  <si>
+    <t>Task_taskName_46</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_46</t>
+  </si>
+  <si>
+    <t>无尽关卡成功抵御30波</t>
+  </si>
+  <si>
+    <t>1|200||2|150</t>
+  </si>
+  <si>
+    <t>Task_taskName_47</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_47</t>
+  </si>
+  <si>
+    <t>无尽关卡成功抵御50波</t>
+  </si>
+  <si>
+    <t>1|300||2|200</t>
+  </si>
+  <si>
+    <t>Task_taskName_48</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_48</t>
+  </si>
+  <si>
+    <t>无尽关卡成功抵御70波</t>
+  </si>
+  <si>
+    <t>1|400||2|250</t>
+  </si>
+  <si>
+    <t>Task_taskName_49</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_49</t>
+  </si>
+  <si>
+    <t>累计强化3级塔500次</t>
+  </si>
+  <si>
+    <t>Task_taskName_50</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_50</t>
+  </si>
+  <si>
+    <t>累计强化3级塔1000次</t>
+  </si>
+  <si>
+    <t>1|1200||2|600||3|60</t>
+  </si>
+  <si>
+    <t>Task_taskName_51</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_51</t>
+  </si>
+  <si>
+    <t>累计击败复原力怪物200只</t>
+  </si>
+  <si>
+    <t>1|400||2|100||3|20</t>
+  </si>
+  <si>
+    <t>Task_taskName_52</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_52</t>
+  </si>
+  <si>
+    <t>累计击败狂暴怪物200只</t>
+  </si>
+  <si>
+    <t>Task_taskName_53</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_53</t>
+  </si>
+  <si>
+    <t>累计击败隐身怪物2000只</t>
+  </si>
+  <si>
+    <t>Task_taskName_54</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_54</t>
+  </si>
+  <si>
+    <t>累计击败飞行怪物2000只</t>
+  </si>
+  <si>
+    <t>Task_taskName_55</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_55</t>
+  </si>
+  <si>
+    <t>今日游戏10次</t>
+  </si>
+  <si>
+    <t>1|200||2|120||3|10</t>
+  </si>
+  <si>
+    <t>Task_taskName_56</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_56</t>
+  </si>
+  <si>
+    <t>今日完美通关2次</t>
+  </si>
+  <si>
+    <t>1|500||2|500||3|10</t>
+  </si>
+  <si>
+    <t>Task_taskName_57</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_57</t>
+  </si>
+  <si>
+    <t>今日挑战无尽关卡3次</t>
+  </si>
+  <si>
+    <t>1|300||2|70||3|10</t>
+  </si>
+  <si>
+    <t>Task_taskName_58</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_58</t>
+  </si>
+  <si>
+    <t>今日击败怪物300个</t>
+  </si>
+  <si>
+    <t>Task_taskName_59</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_59</t>
+  </si>
+  <si>
+    <t>今日击败无尽关卡首领3个</t>
+  </si>
+  <si>
+    <t>Task_taskName_60</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_60</t>
+  </si>
+  <si>
+    <t>今日部署光元素塔200次</t>
+  </si>
+  <si>
+    <t>1|100||2|70||3|10</t>
+  </si>
+  <si>
+    <t>Task_taskName_61</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_61</t>
+  </si>
+  <si>
+    <t>今日部署暗元素塔200次</t>
+  </si>
+  <si>
+    <t>Task_taskName_62</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_62</t>
+  </si>
+  <si>
+    <t>今日部署水元素塔200次</t>
+  </si>
+  <si>
+    <t>Task_taskName_63</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_63</t>
+  </si>
+  <si>
+    <t>今日部署火元素塔200次</t>
+  </si>
+  <si>
+    <t>Task_taskName_64</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_64</t>
+  </si>
+  <si>
+    <t>今日部署木元素塔200次</t>
+  </si>
+  <si>
+    <t>Task_taskName_65</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_65</t>
+  </si>
+  <si>
+    <t>今日部署土元素塔200次</t>
+  </si>
+  <si>
+    <t>Task_taskName_66</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_66</t>
+  </si>
+  <si>
+    <t>今日强化3级塔100次</t>
+  </si>
+  <si>
+    <t>Task_taskName_67</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_67</t>
+  </si>
+  <si>
+    <t>今日击败复原力怪物10只</t>
+  </si>
+  <si>
+    <t>Task_taskName_68</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_68</t>
+  </si>
+  <si>
+    <t>今日击败狂暴怪物10只</t>
+  </si>
+  <si>
+    <t>Task_taskName_69</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_69</t>
+  </si>
+  <si>
+    <t>今日击败隐身怪物100只</t>
+  </si>
+  <si>
+    <t>Task_taskName_70</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_70</t>
+  </si>
+  <si>
+    <t>今日击败飞行怪物100只</t>
+  </si>
+  <si>
+    <t>Task_taskName_71</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_71</t>
+  </si>
+  <si>
+    <t>今日角色完成一次升级</t>
+  </si>
+  <si>
+    <t>1|200||2|70||3|10</t>
+  </si>
+  <si>
+    <t>Task_taskName_72</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_72</t>
+  </si>
+  <si>
+    <t>今日解锁一点天赋</t>
+  </si>
+  <si>
+    <t>3|20</t>
+  </si>
+  <si>
+    <t>Task_taskName_73</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_73</t>
+  </si>
+  <si>
+    <t>今日解锁一个塔</t>
+  </si>
+  <si>
+    <t>2|70||3|10</t>
+  </si>
+  <si>
+    <t>Task_taskName_74</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_74</t>
+  </si>
+  <si>
+    <t>角色等级到达40级</t>
+  </si>
+  <si>
+    <t>1|400||2|400</t>
+  </si>
+  <si>
+    <t>Task_taskName_75</t>
+  </si>
+  <si>
+    <t>Task_taskinfo_75</t>
   </si>
   <si>
     <t>角色等级到达50级</t>
   </si>
   <si>
-    <t>Task_taskName_45</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_45</t>
-  </si>
-  <si>
-    <t>无尽关卡成功抵御10波</t>
-  </si>
-  <si>
-    <t>Task_taskName_46</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_46</t>
-  </si>
-  <si>
-    <t>无尽关卡成功抵御30波</t>
-  </si>
-  <si>
-    <t>Task_taskName_47</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_47</t>
-  </si>
-  <si>
-    <t>无尽关卡成功抵御50波</t>
-  </si>
-  <si>
-    <t>Task_taskName_48</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_48</t>
-  </si>
-  <si>
-    <t>Task_taskName_49</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_49</t>
-  </si>
-  <si>
-    <t>累计强化3级塔500次</t>
-  </si>
-  <si>
-    <t>Task_taskName_50</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_50</t>
-  </si>
-  <si>
-    <t>累计强化3级塔1000次</t>
-  </si>
-  <si>
-    <t>1|1200||2|600||3|60</t>
-  </si>
-  <si>
-    <t>Task_taskName_51</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_51</t>
-  </si>
-  <si>
-    <t>累计击败复原力怪物2000只</t>
-  </si>
-  <si>
-    <t>1|400||2|100||3|20</t>
-  </si>
-  <si>
-    <t>Task_taskName_52</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_52</t>
-  </si>
-  <si>
-    <t>累计击败狂暴怪物2000只</t>
-  </si>
-  <si>
-    <t>Task_taskName_53</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_53</t>
-  </si>
-  <si>
-    <t>累计击败隐身怪物2000只</t>
-  </si>
-  <si>
-    <t>Task_taskName_54</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_54</t>
-  </si>
-  <si>
-    <t>累计击败飞行怪物2000只</t>
-  </si>
-  <si>
-    <t>Task_taskName_55</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_55</t>
-  </si>
-  <si>
-    <t>1|200||2|120||3|10</t>
-  </si>
-  <si>
-    <t>Task_taskName_56</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_56</t>
-  </si>
-  <si>
-    <t>今日完美通关10次</t>
-  </si>
-  <si>
-    <t>Task_taskName_57</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_57</t>
-  </si>
-  <si>
-    <t>今日挑战无尽关卡3次</t>
-  </si>
-  <si>
-    <t>1|300||2|70||3|10</t>
-  </si>
-  <si>
-    <t>Task_taskName_58</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_58</t>
-  </si>
-  <si>
-    <t>今日击败怪物300个</t>
-  </si>
-  <si>
-    <t>Task_taskName_59</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_59</t>
-  </si>
-  <si>
-    <t>今日击败无尽关卡首领3个</t>
-  </si>
-  <si>
-    <t>Task_taskName_60</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_60</t>
-  </si>
-  <si>
-    <t>今日部署光元素塔200次</t>
-  </si>
-  <si>
-    <t>1|100||2|70||3|10</t>
-  </si>
-  <si>
-    <t>Task_taskName_61</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_61</t>
-  </si>
-  <si>
-    <t>今日部署暗元素塔200次</t>
-  </si>
-  <si>
-    <t>Task_taskName_62</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_62</t>
-  </si>
-  <si>
-    <t>今日部署水元素塔200次</t>
-  </si>
-  <si>
-    <t>Task_taskName_63</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_63</t>
-  </si>
-  <si>
-    <t>今日部署火元素塔200次</t>
-  </si>
-  <si>
-    <t>Task_taskName_64</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_64</t>
-  </si>
-  <si>
-    <t>今日部署木元素塔200次</t>
-  </si>
-  <si>
-    <t>Task_taskName_65</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_65</t>
-  </si>
-  <si>
-    <t>今日部署土元素塔200次</t>
-  </si>
-  <si>
-    <t>Task_taskName_66</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_66</t>
-  </si>
-  <si>
-    <t>今日强化3级塔100次</t>
-  </si>
-  <si>
-    <t>Task_taskName_67</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_67</t>
-  </si>
-  <si>
-    <t>今日击败复原力怪物200只</t>
-  </si>
-  <si>
-    <t>Task_taskName_68</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_68</t>
-  </si>
-  <si>
-    <t>今日击败狂暴怪物200只</t>
-  </si>
-  <si>
-    <t>Task_taskName_69</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_69</t>
-  </si>
-  <si>
-    <t>今日击败隐身怪物200只</t>
-  </si>
-  <si>
-    <t>Task_taskName_70</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_70</t>
-  </si>
-  <si>
-    <t>今日击败飞行怪物200只</t>
-  </si>
-  <si>
-    <t>Task_taskName_71</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_71</t>
-  </si>
-  <si>
-    <t>今日角色完成一次升级</t>
-  </si>
-  <si>
-    <t>1|200||2|70||3|10</t>
-  </si>
-  <si>
-    <t>Task_taskName_72</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_72</t>
-  </si>
-  <si>
-    <t>今日解锁一点天赋</t>
-  </si>
-  <si>
-    <t>3|20</t>
-  </si>
-  <si>
-    <t>Task_taskName_73</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_73</t>
-  </si>
-  <si>
-    <t>今日解锁一个塔</t>
-  </si>
-  <si>
-    <t>2|70||3|10</t>
-  </si>
-  <si>
-    <t>1|500||2|500||3|10</t>
-  </si>
-  <si>
-    <t>今日游戏10次</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task_taskName_74</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_74</t>
-  </si>
-  <si>
-    <t>角色等级到达40级</t>
-  </si>
-  <si>
-    <t>1|400||2|400</t>
-  </si>
-  <si>
-    <t>Task_taskName_75</t>
-  </si>
-  <si>
-    <t>Task_taskinfo_75</t>
-  </si>
-  <si>
     <t>1|500||2|500</t>
   </si>
   <si>
@@ -1111,46 +1137,19 @@
   </si>
   <si>
     <t>1|900||2|500</t>
-  </si>
-  <si>
-    <t>角色等级到达10级</t>
-  </si>
-  <si>
-    <t>1|100||2|100</t>
-  </si>
-  <si>
-    <t>角色等级到达20级</t>
-  </si>
-  <si>
-    <t>1|200||2|200</t>
-  </si>
-  <si>
-    <t>1|300||2|300</t>
-  </si>
-  <si>
-    <t>1|200||2|150</t>
-  </si>
-  <si>
-    <t>1|300||2|200</t>
-  </si>
-  <si>
-    <t>无尽关卡成功抵御70波</t>
-  </si>
-  <si>
-    <t>1|400||2|250</t>
-  </si>
-  <si>
-    <t>dragonPoints</t>
-  </si>
-  <si>
-    <t>活动赛季积分</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1161,13 +1160,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1175,28 +1172,172 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1209,8 +1350,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1233,9 +1560,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,158 +1837,89 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1430,7 +1930,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1458,40 +1958,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1550,7 +2164,7 @@
         <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1601,20 +2215,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="27.375" style="2" customWidth="1"/>
@@ -1622,7 +2237,7 @@
     <col min="6" max="6" width="42.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="8" max="9" width="25.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="2" customWidth="1"/>
     <col min="11" max="978" width="9" style="2"/>
     <col min="979" max="985" width="11.625" style="2" customWidth="1"/>
     <col min="986" max="986" width="9" style="2"/>
@@ -1630,7 +2245,7 @@
     <col min="998" max="1024" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1691,50 +2306,50 @@
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="408" customHeight="1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="408" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1743,175 +2358,175 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="6">
         <v>100001</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
       </c>
       <c r="I5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="6">
         <v>100002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
       </c>
       <c r="I6" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="6">
         <v>100003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="6">
         <v>1</v>
       </c>
       <c r="I7" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="6">
         <v>100004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="6">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="6">
         <v>100005</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
         <v>42</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>100</v>
       </c>
       <c r="J9" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="6">
         <v>100006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6">
         <v>7</v>
@@ -1923,535 +2538,535 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="6">
         <v>100007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" s="6">
         <v>7</v>
       </c>
       <c r="I11" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="6">
         <v>100008</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H12" s="6">
         <v>7</v>
       </c>
       <c r="I12" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="6">
         <v>100009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H13" s="6">
         <v>7</v>
       </c>
       <c r="I13" s="6">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="J13" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="6">
         <v>100010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" s="6">
         <v>7</v>
       </c>
       <c r="I14" s="6">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="J14" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="6">
         <v>100011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H15" s="6">
         <v>2</v>
       </c>
       <c r="I15" s="6">
-        <v>5</v>
+        <v>1015</v>
       </c>
       <c r="J15" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="6">
         <v>100012</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16" s="6">
         <v>2</v>
       </c>
       <c r="I16" s="6">
-        <v>10</v>
+        <v>1024</v>
       </c>
       <c r="J16" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="6">
         <v>100013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H17" s="6">
         <v>2</v>
       </c>
       <c r="I17" s="6">
-        <v>20</v>
+        <v>1039</v>
       </c>
       <c r="J17" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="6">
         <v>100014</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18" s="6">
         <v>2</v>
       </c>
       <c r="I18" s="6">
-        <v>40</v>
+        <v>1046</v>
       </c>
       <c r="J18" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="6">
         <v>100015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H19" s="6">
         <v>1047</v>
       </c>
       <c r="I19" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J19" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="6">
         <v>100016</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H20" s="6">
         <v>1048</v>
       </c>
       <c r="I20" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J20" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="6">
         <v>100017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="6">
         <v>1049</v>
       </c>
       <c r="I21" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J21" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="6">
         <v>100018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H22" s="6">
         <v>26</v>
       </c>
       <c r="I22" s="6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J22" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="6">
         <v>100019</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H23" s="6">
         <v>26</v>
       </c>
       <c r="I23" s="6">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="J23" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="6">
         <v>100020</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H24" s="6">
         <v>26</v>
       </c>
       <c r="I24" s="6">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="J24" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="6">
         <v>100021</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H25" s="6">
         <v>3</v>
       </c>
       <c r="I25" s="6">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J25" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="6">
         <v>100022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H26" s="6">
         <v>5</v>
       </c>
       <c r="I26" s="6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J26" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="6">
         <v>100023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H27" s="6">
         <v>5</v>
       </c>
       <c r="I27" s="6">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="J27" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="6">
         <v>100024</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H28" s="6">
         <v>8</v>
@@ -2463,25 +3078,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="6">
         <v>100025</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H29" s="6">
         <v>8</v>
@@ -2493,505 +3108,505 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="6">
         <v>100026</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H30" s="6">
         <v>6</v>
       </c>
       <c r="I30" s="6">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="J30" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="6">
         <v>100027</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H31" s="6">
         <v>6</v>
       </c>
       <c r="I31" s="6">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J31" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="6">
         <v>100028</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H32" s="6">
         <v>6</v>
       </c>
       <c r="I32" s="6">
-        <v>20</v>
+        <v>5000</v>
       </c>
       <c r="J32" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="6">
         <v>100029</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H33" s="6">
         <v>6</v>
       </c>
       <c r="I33" s="6">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="J33" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="6">
         <v>100030</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H34" s="6">
         <v>9</v>
       </c>
       <c r="I34" s="6">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="J34" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="6">
         <v>100031</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H35" s="6">
         <v>9</v>
       </c>
       <c r="I35" s="6">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="J35" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="6">
         <v>100032</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H36" s="6">
         <v>10</v>
       </c>
       <c r="I36" s="6">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="J36" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="6">
         <v>100033</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H37" s="6">
         <v>10</v>
       </c>
       <c r="I37" s="6">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="J37" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="6">
         <v>100034</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H38" s="6">
         <v>11</v>
       </c>
       <c r="I38" s="6">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="J38" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="6">
         <v>100035</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H39" s="6">
         <v>11</v>
       </c>
       <c r="I39" s="6">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="J39" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="6">
         <v>100036</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H40" s="6">
         <v>12</v>
       </c>
       <c r="I40" s="6">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="J40" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" s="6">
         <v>100037</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H41" s="6">
         <v>12</v>
       </c>
       <c r="I41" s="6">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="J41" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" s="6">
         <v>100038</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H42" s="6">
         <v>13</v>
       </c>
       <c r="I42" s="6">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="J42" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" s="6">
         <v>100039</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H43" s="6">
         <v>13</v>
       </c>
       <c r="I43" s="6">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="J43" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44" s="6">
         <v>100040</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H44" s="6">
         <v>14</v>
       </c>
       <c r="I44" s="6">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="J44" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" s="6">
         <v>100041</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H45" s="6">
         <v>14</v>
       </c>
       <c r="I45" s="6">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="J45" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46" s="6">
         <v>100042</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>308</v>
+        <v>174</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="8" t="s">
-        <v>309</v>
+        <v>175</v>
       </c>
       <c r="H46" s="6">
         <v>15</v>
@@ -3003,25 +3618,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" s="6">
         <v>100043</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="8" t="s">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="H47" s="6">
         <v>15</v>
@@ -3033,25 +3648,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" s="6">
         <v>100044</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="8" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="H48" s="6">
         <v>15</v>
@@ -3063,25 +3678,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49" s="6">
         <v>100045</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="8" t="s">
-        <v>309</v>
+        <v>175</v>
       </c>
       <c r="H49" s="6">
         <v>16</v>
@@ -3093,25 +3708,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50" s="6">
         <v>100046</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="8" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="H50" s="6">
         <v>16</v>
@@ -3123,25 +3738,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51" s="6">
         <v>100047</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="8" t="s">
-        <v>314</v>
+        <v>194</v>
       </c>
       <c r="H51" s="6">
         <v>16</v>
@@ -3153,25 +3768,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52" s="6">
         <v>100048</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>315</v>
+        <v>197</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="8" t="s">
-        <v>316</v>
+        <v>198</v>
       </c>
       <c r="H52" s="6">
         <v>16</v>
@@ -3183,198 +3798,198 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="A53" s="6">
         <v>100049</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H53" s="6">
         <v>17</v>
       </c>
       <c r="I53" s="6">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="J53" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" s="6">
         <v>100050</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H54" s="6">
         <v>17</v>
       </c>
       <c r="I54" s="6">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="J54" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="A55" s="6">
         <v>100051</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="8" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H55" s="6">
         <v>18</v>
       </c>
       <c r="I55" s="6">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="J55" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" s="6">
         <v>100052</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="8" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H56" s="6">
         <v>19</v>
       </c>
       <c r="I56" s="6">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="J56" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" s="6">
         <v>100053</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="8" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H57" s="6">
         <v>21</v>
       </c>
       <c r="I57" s="6">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="J57" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" s="6">
         <v>100054</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="8" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H58" s="6">
         <v>20</v>
       </c>
       <c r="I58" s="6">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="J58" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" s="6">
         <v>100055</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
@@ -3383,30 +3998,30 @@
         <v>1</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="H59" s="6">
         <v>5</v>
       </c>
       <c r="I59" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J59" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="A60" s="6">
         <v>100056</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E60" s="6">
         <v>2</v>
@@ -3415,30 +4030,30 @@
         <v>1</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="H60" s="6">
         <v>8</v>
       </c>
       <c r="I60" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J60" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="A61" s="6">
         <v>100057</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="E61" s="6">
         <v>2</v>
@@ -3447,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H61" s="6">
         <v>22</v>
@@ -3459,18 +4074,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10">
       <c r="A62" s="6">
         <v>100058</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
@@ -3479,30 +4094,30 @@
         <v>1</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H62" s="6">
         <v>6</v>
       </c>
       <c r="I62" s="6">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="J62" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="A63" s="6">
         <v>100059</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E63" s="6">
         <v>2</v>
@@ -3511,30 +4126,30 @@
         <v>1</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H63" s="6">
         <v>23</v>
       </c>
       <c r="I63" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J63" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10">
       <c r="A64" s="6">
         <v>100060</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -3543,30 +4158,30 @@
         <v>1</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H64" s="6">
         <v>9</v>
       </c>
       <c r="I64" s="6">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J64" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10">
       <c r="A65" s="6">
         <v>100061</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E65" s="6">
         <v>2</v>
@@ -3575,30 +4190,30 @@
         <v>1</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H65" s="6">
         <v>10</v>
       </c>
       <c r="I65" s="6">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J65" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10">
       <c r="A66" s="6">
         <v>100062</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E66" s="6">
         <v>2</v>
@@ -3607,30 +4222,30 @@
         <v>1</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H66" s="6">
         <v>11</v>
       </c>
       <c r="I66" s="6">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J66" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10">
       <c r="A67" s="6">
         <v>100063</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="E67" s="6">
         <v>2</v>
@@ -3639,30 +4254,30 @@
         <v>1</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H67" s="6">
         <v>12</v>
       </c>
       <c r="I67" s="6">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J67" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10">
       <c r="A68" s="6">
         <v>100064</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E68" s="6">
         <v>2</v>
@@ -3671,30 +4286,30 @@
         <v>1</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H68" s="6">
         <v>13</v>
       </c>
       <c r="I68" s="6">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J68" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10">
       <c r="A69" s="6">
         <v>100065</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E69" s="6">
         <v>2</v>
@@ -3703,30 +4318,30 @@
         <v>1</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H69" s="6">
         <v>14</v>
       </c>
       <c r="I69" s="6">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J69" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10">
       <c r="A70" s="6">
         <v>100066</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E70" s="6">
         <v>2</v>
@@ -3735,30 +4350,30 @@
         <v>1</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H70" s="6">
         <v>17</v>
       </c>
       <c r="I70" s="6">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="J70" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10">
       <c r="A71" s="6">
         <v>100067</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E71" s="6">
         <v>2</v>
@@ -3767,30 +4382,30 @@
         <v>1</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H71" s="6">
         <v>18</v>
       </c>
       <c r="I71" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J71" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10">
       <c r="A72" s="6">
         <v>100068</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E72" s="6">
         <v>2</v>
@@ -3799,30 +4414,30 @@
         <v>1</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H72" s="6">
         <v>19</v>
       </c>
       <c r="I72" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J72" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10">
       <c r="A73" s="6">
         <v>100069</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E73" s="6">
         <v>2</v>
@@ -3831,30 +4446,30 @@
         <v>1</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H73" s="6">
         <v>21</v>
       </c>
       <c r="I73" s="6">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J73" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10">
       <c r="A74" s="6">
         <v>100070</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E74" s="6">
         <v>2</v>
@@ -3863,30 +4478,30 @@
         <v>1</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H74" s="6">
         <v>20</v>
       </c>
       <c r="I74" s="6">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J74" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10">
       <c r="A75" s="6">
         <v>100071</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="E75" s="6">
         <v>2</v>
@@ -3895,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H75" s="6">
         <v>27</v>
@@ -3907,18 +4522,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10">
       <c r="A76" s="6">
         <v>100072</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="E76" s="6">
         <v>2</v>
@@ -3927,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H76" s="6">
         <v>2</v>
@@ -3939,18 +4554,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10">
       <c r="A77" s="6">
         <v>100073</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E77" s="6">
         <v>2</v>
@@ -3959,36 +4574,36 @@
         <v>1</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="H77" s="6">
         <v>25</v>
       </c>
       <c r="I77" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10">
       <c r="A78" s="2">
         <v>100074</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="H78" s="2">
         <v>15</v>
@@ -4000,24 +4615,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10">
       <c r="A79" s="2">
         <v>100075</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="H79" s="2">
         <v>15</v>
@@ -4029,24 +4644,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10">
       <c r="A80" s="2">
         <v>100076</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E80" s="2">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H80" s="2">
         <v>15</v>
@@ -4058,24 +4673,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10">
       <c r="A81" s="2">
         <v>100077</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H81" s="2">
         <v>15</v>
@@ -4087,24 +4702,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10">
       <c r="A82" s="2">
         <v>100078</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E82" s="2">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="H82" s="2">
         <v>16</v>
@@ -4116,24 +4731,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>100079</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H83" s="2">
         <v>16</v>
@@ -4145,24 +4760,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>100080</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E84" s="2">
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="H84" s="2">
         <v>16</v>
@@ -4174,24 +4789,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>100081</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H85" s="2">
         <v>16</v>
@@ -4203,24 +4818,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>100082</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="H86" s="2">
         <v>16</v>
@@ -4233,8 +4848,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>